--- a/Articles/Pages.xlsx
+++ b/Articles/Pages.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>disabilities diversity inclusive disability erg culture accessibility hiring</t>
+          <t>culture inclusive diversity disabilities hiring disability accessibility erg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Empowering employees with disabilities - Microsoft ...</t>
+          <t>Empowering employees with disabilities - Microsoft Accessibility Blog</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>employment disabilities month national blind awareness inclusive inclusion hiring ndeam culture wheelchair autism disability accessibility accessible</t>
+          <t>month wheelchair autism inclusion awareness accessible blind employment culture inclusive disabilities hiring disability national accessibility ndeam</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Disability Hiring - microsoft.com</t>
+          <t>Disability Hiring</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>abilities employment disabilities accommodation diversity accommodations inclusive disability diverse interview equal culture accessibility hiring</t>
+          <t>accommodations diverse abilities equal employment culture hiring inclusive disabilities diversity disability interview accessibility accommodation</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>hire disabilities diversity employee representation inclusive disability inclusion resource blindness diverse group culture accessible</t>
+          <t>hire employee inclusion representation diverse accessible blindness group culture inclusive diversity disabilities resource disability</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Microsoft Recruits, Hires and Accommodates People with ...</t>
+          <t>Microsoft Recruits, Hires and Accommodates People with Disabilities - Stories</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>hire abilities employment blind recruiting hiring accessibility accessible diversity jobs accommodating equal disabilities opportunity accommodations recruitment deafness interview employer wheelchair impaired disability visually</t>
+          <t>accommodations accommodating impaired blind jobs accessibility opportunity abilities equal diversity disability recruiting hire wheelchair employment interview employer visually deafness accessible recruitment hiring disabilities</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>disabilities blind disability accessibility accessible</t>
+          <t>accessible blind disabilities disability accessibility</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leaders who revealed their disabilities found unexpected ...</t>
+          <t>Leaders who revealed their disabilities found unexpected rewards — and so did their teams - Stories</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>employment disabilities diversity accessibility inclusive inclusion culture diverse disability autism hiring</t>
+          <t>autism inclusion diverse employment culture inclusive disabilities hiring diversity disability accessibility</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>disabilities employee resource group disability</t>
+          <t>employee group disabilities resource disability</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>To mark National Disability ... - news.microsoft.com</t>
+          <t>To mark National Disability Employment Awareness Month, meet the people making a difference at Microsoft – On the Issues</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -878,12 +878,13 @@
 For more on Accessibility, visitOn the Issues: Accessibility. And follow@MSFTIssueson Twitter.
 Doubling down on accessibility: Microsoft’s next steps to expand accessibility in technology, the workforce and workplace
 Catch up on these key skills, training and employment stories from Microsoft On the Issues
-Building a more inclusive skills-based economy: The next steps for our global skills initiative</t>
+Building a more inclusive skills-based economy: The next steps for our global skills initiative
+Honoring Global Accessibility Awareness Day with a call to action</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>abilities employment disabilities blind inclusive inclusion hiring diverse autism disability accessibility accessible</t>
+          <t>autism inclusion diverse abilities accessible blind employment inclusive disabilities hiring disability accessibility</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Overview of inactive mailboxes - Microsoft 365 Compliance ...</t>
+          <t>Overview of inactive mailboxes - Microsoft 365 Compliance | Microsoft Docs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -917,7 +918,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>employment hired</t>
+          <t>hired employment</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -939,7 +940,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Disability in the workplace: Insights ... - news.microsoft.com</t>
+          <t>Disability in the workplace: Insights and advice for current or future colleagues – Microsoft News Centre Europe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -956,7 +957,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>employer disabilities inclusion disability accessible</t>
+          <t>employer inclusion accessible disabilities disability</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -978,7 +979,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>What the disability community can teach us about working ...</t>
+          <t>What the disability community can teach us about working remotely - Microsoft Accessibility Blog</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -996,7 +997,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>disabilities inclusive accommodations disability accessibility accessible</t>
+          <t>accommodations accessible inclusive disabilities disability accessibility</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1018,7 +1019,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Recover an inactive mailbox - Microsoft 365 Compliance ...</t>
+          <t>Recover an inactive mailbox - Microsoft 365 Compliance | Microsoft Docs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>employment accommodation disabilities diversity inclusive disability discrimination inclusion diverse recruitment equal culture discriminate hiring</t>
+          <t>inclusion diverse equal discriminate discrimination employment culture recruitment inclusive diversity disabilities hiring disability accommodation</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1118,7 +1119,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>disabilities diversity employee inclusive resource disability inclusion diverse d&amp;i group jobs culture accessibility accessible</t>
+          <t>employee inclusion diverse d&amp;i accessible group culture inclusive disabilities jobs resource disability diversity accessibility</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>disabilities blind inclusivity inclusive inclusion visually deafness impaired disability accessibility accessible</t>
+          <t>inclusivity inclusion visually deafness impaired accessible blind inclusive disabilities disability accessibility</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1187,7 +1188,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Our Accessibility Approach - Microsoft Accessibility</t>
+          <t>Our Accessibility Approach | Microsoft Accessibility</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>employment disabilities inclusion disability accessibility accessible</t>
+          <t>inclusion accessible employment disabilities disability accessibility</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1342,7 +1343,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>hire abilities blind recruiting accommodate hiring accessibility accessible diversity blindness inclusion culture autism disabilities inclusive accommodations deafness interview wheelchair disability hired</t>
+          <t>hired accommodations autism blindness blind inclusive accessibility abilities diversity disability accommodate hire recruiting wheelchair inclusion interview deafness accessible culture hiring disabilities</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1364,7 +1365,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Transcript: Brad Smith's remarks at an employee meeting ...</t>
+          <t>Transcript: Brad Smith's remarks at an employee meeting Thursday - Microsoft On the Issues</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1380,7 +1381,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>accessibility diversity inclusion</t>
+          <t>accessibility inclusion diversity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1402,7 +1403,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Microsoft Accessibility Conformance Reports - Microsoft ...</t>
+          <t>Microsoft Accessibility Conformance Reports - Microsoft Industry Blogs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1420,7 +1421,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>disabilities accessibility</t>
+          <t>accessibility disabilities</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1432,7 +1433,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://careers.microsoft.com/us/en/diversityandinclusion</t>
+          <t>https://customers.microsoft.com/en-us/story/830344-state-of-georgia-government-m365-azure</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1442,52 +1443,85 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Diversity and Inclusion | Microsoft Careers</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
+          <t>Microsoft Customer Story-Keeping critical state services operating to support citizens during COVID-19 with Microsoft highly secure remote work solutions</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>From our leaders to the larger community, Microsoft is dedicated to infusing diversity and inclusion principles into our hiring, our communication, our innovation, and the way we build products and technologies.</t>
+          <t>OST is headquartered in Atlanta, Georgia’s capital, where weather can cause great disruption. Downed trees in spring thunderstorms and winter ice storms cause power outages that often last for days and can prevent employees from traveling to the office. Even in good weather, the city’s notorious traffic causes huge delays for employees trying to get to work. Given the critical nature of its business, OST can’t afford to have unexpected downtime. That’s why OST chose to adopt the powerful combination of Microsoft 365 Enterprise, Microsoft Surface Book devices, and Windows Virtual Desktop to provide employees with highly secure, continuous, seamless access to the information and contacts they need to do their jobs from anywhere.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>inclusion diversity hiring</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>culture hiring</t>
+          <t>hiring</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>https://careers.microsoft.com/us/en/diversityandinclusion</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Diversity and Inclusion | Microsoft Careers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>From our leaders to the larger community, Microsoft is dedicated to infusing diversity and inclusion principles into our hiring, our communication, our innovation, and the way we build products and technologies.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>inclusion hiring diversity</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>culture hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>https://blogs.microsoft.com/newengland/2019/09/27/microsoft-employee-resource-groups-building-community/</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Microsoft Employee Resource Groups: Building Community ...</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Microsoft Employee Resource Groups: Building Community - Microsoft New England</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>In our mission to empower everybody to achieve more, we at Microsoft strive to create an environment that brings the power of diversity to life. It is important that all our teammates — people with different backgrounds and experiences — support and celebrate each other, and create an environment where we all can thrive and use our passions.
  The Hispanic/Latinx Organization of Leaders in Action, or HOLA, works to recruit, retain, and advance current and future Hispanic and Latinx employees at Microsoft. Ernesto Lara, senior engineering manager and chapter lead of HOLA at NERD, helps HOLA function as a resource for the Hispanic/Latinx community at NERD, from site-wide events duringHispanic Heritage Monthto diversity and inclusion seminars to recruitment efforts that build a pipeline of inclusion into technology.
@@ -1498,39 +1532,39 @@
  Learn more about Microsoft’s commitment to diversity and inclusion here .</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>diversity recruit employee inclusive resource inclusion erg recruitment diverse group</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>recruit employee inclusion diverse group recruitment inclusive diversity resource erg</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/bayarea/2018/04/30/microsoft-employee-resource-groups-creating-community-and-celebrating-diversity-across-silicon-valley-and-san-francisco/</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Microsoft employee resource groups: creating community and ...</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Microsoft employee resource groups: creating community and celebrating diversity across Silicon Valley and San Francisco | Microsoft Bay Area Blog</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Minority Student Day is one of the many ways ourEmployee Resource Groups(ERGs) connect employees with the greater Bay Area community. Regional ERG chapters create a deep sense of belonging to Microsoft by bringing people together — not only within each ERG, but across Microsoft Silicon Valley and San Francisco. ERGs frequently collaborate with each other across events to create an even larger impact.
 Meet a few of the ERG superstars helping to foster inclusion and diversity on our campus.
@@ -1541,35 +1575,35 @@
 At Microsoft, we believe our continued success depends on the diverse skills, experiences, and backgrounds that our employees bring to the company.Learn about Microsoft’s community of Employee Resource Groups(ERGs) that help to foster diversity and inclusion.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>diversity inclusive inclusion erg diverse</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inclusion diverse inclusive diversity erg</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/accessibility</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Accessibility Technology &amp; Tools - Microsoft Accessibility</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Accessibility Technology &amp; Tools | Microsoft Accessibility</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>We are making a new 5-year commitment to help decrease the gap in education, employment, and access to technology for people with disabilities around the world.
 There are no limits to what people can achieve when technology reflects the diversity of everyone.
@@ -1582,50 +1616,9 @@
 Start your accessibility journey today by learning how to create experiences that are accessible for people of all abilities.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>abilities employment disabilities diversity inclusive accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>culture disability hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-us/research/group/ability/</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Ability - Microsoft Research</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Web search is an important modern literacy skill, necessary for fully participating in many aspects of society including education, employment, commerce, and entertainment. However, web search is particularly challenging for people with print disabilities, such as visual or cognitive impairments. Our project on accessible information retrieval considers how front-end interfaces and back-end algorithms for IR systems can evolve to support successful information seeking by a wider audience.
-This project considers how to design emerging Mixed Reality technologies (including AR and VR) so that they are usable by and useful to people of all abilities. Too often, the accessibility of technology to people with disabilities is an afterthought (if it is considered at all); post-hoc or third-party patches to accessibility, while better than no solution, are less optimal than interface designs that consider ability-based concerns from the start. Mixed Reality (MR) technologies are…
-This project examines how workplaces and productivity tools can be made more inclusive to people of all abilities, including tools for remote work.
-This project examines issues around AI FATE (Fairness, Accountability, Transparency, and Ethics) and Responsible AI, with a particular focus on how AI systems impact people with disabilities. This includes ensuring that mainstream AI tools are inclusively designed such that they work correctly for users regardless of ability status, that accessibility-oriented AI technologies are designed in a human-centered way to solve problems that truly matter to end-users, and that AI practitioners follow inclusive design processes when…
-Digital imagery pervades modern life. More than a billion images per day are produced and uploaded to social media sites, and we also encounter digital images within websites, apps, digital documents, and eBooks. Engaging with digital imagery is part of the fabric of participation in contemporary society, including education, the professions, e-commerce, civic participation , entertainment, and social interactions. However, most digital images remain inaccessible to the 39 million people worldwide who are blind. This…
-This workshop will bring together data visualization researchers, accessibility researchers, as well as representatives from disability organizations to identify the current problems, to discuss possible solutions, and to create a roadmap for research on the important topic of making data visualization more accessible.
-Research Internships at Microsoft provide a dynamic environment for research careers with a network of world-class research labs led by globally-recognized scientists and engineers. Our researchers and engineers pursue innovation in a range of scientific and technical disciplines to help solve complex challenges in diverse fields, including computing, healthcare, economics, and the environment. This position is for a research internship with the Ability research group in MSR’s Redmond Lab. The Ability group conducts research aimed at…
-According to the WHO, more than one billion people worldwide, or 15% of the world’s population, experience some form a disability, making them the world’s largest minority. In the US, the CDC reports that 26% of adults in the United States (1 in 4!) live with some form of disability. We believe that computing technologies can play a unique role in improving the quality of life and extending the capabilities of people with disabilities. In our work, we seek to:
-“For me, my greatest satisfaction has come from my passion to see technology become more accessible for people with disabilities and to help improve their lives in a myriad of ways.”– Microsoft CEO Satya Nadella, 2017</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>abilities employment disabilities blind inclusive diverse disability accessibility accessible</t>
+          <t>abilities accessible employment inclusive diversity disabilities accessibility</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1637,25 +1630,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>https://www.microsoft.com/en-us/research/group/ability/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ability - Microsoft Research</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>According to the WHO, more than one billion people worldwide, or 15% of the world’s population, experience some form a disability, making them the world’s largest minority. In the US, the CDC reports that 26% of adults in the United States (1 in 4!) live with some form of disability. We believe that computing technologies can play a unique role in improving the quality of life and extending the capabilities of people with disabilities. In our work, we seek to:
+“For me, my greatest satisfaction has come from my passion to see technology become more accessible for people with disabilities and to help improve their lives in a myriad of ways.”– Microsoft CEO Satya Nadella, 2017</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>accessible disability disabilities</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>https://news.microsoft.com/en-gb/2019/04/25/microsoft-named-disability-confident-leader-for-focus-on-staff-equality/</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Microsoft named Disability Confident Leader for focus on ...</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Microsoft named Disability Confident Leader for focus on staff equality</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Microsoft has been named aDisability Confident Leaderfor its inclusive approach to hiring people with disabilities and ensuring they can learn new skills.
 The title has been awarded by the UK Government because of Microsoft’s commitment to diversity and inclusivity, as well as its work in encouraging suppliers and vendors to do the same.
@@ -1671,39 +1698,39 @@
 Research from disability equality charity Scopefound that two in five people with disabilities who are unemployed but looking for a job don’t feel confident about their chances of finding one in the next six months. Just over half (51%) of job applications from people with disabilities result in an interview, compared with 69% for applicants who do not have a disability.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>hire employer disabilities employment diversity recruit inclusivity employee inclusive resource inclusion culture interview group accessible disability hiring accessibility</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>recruit hire employee employer inclusivity inclusion accessible group culture employment hiring diversity disabilities inclusive disability resource interview accessibility</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/2018/02/11/microsoft-names-lindsay-rae-mcintyre-chief-diversity-officer/</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Microsoft names Lindsay-Rae McIntyre Chief Diversity ...</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Microsoft names Lindsay-Rae McIntyre Chief Diversity Officer - Stories</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve"> REDMOND, Wash. – Feb. 11, 2018 –Microsoft Corp. has named Lindsay-Rae McIntyre as its next chief diversity officer (CDO). As CDO, McIntyre will implement and drive a multitude of existing cross-company initiatives to further Microsoft’s progress in building a diverse and inclusive culture. In addition to leading Microsoft’s efforts internally, McIntyre will also play a key role in building partnerships and working with leading organizations outside of Microsoft to help advance diversity and inclusion in the tech sector overall.
  “Diversity enriches our performance and products as well as the communities where we live and work,” said Hogan.  “We have devoted substantial energy and resources to becoming a more diverse and inclusive company, and continuing our progress is central to our evolving culture at Microsoft.  With her extensive expertise, Lindsay-Rae will bring great perspective and leadership as we look to build on our strengths in this area.”
@@ -1711,39 +1738,39 @@
  She has been a thought leader for topics ranging from supporting working mothers, creating great places to work for multicultural women, LGBTQ equality, paid leave, and flex time strategies. She is also an advocate for people with disabilities, was a teacher for the Deaf, and taught American Sign Language earlier in her career.</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>disabilities diversity inclusive inclusion diverse culture</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>inclusion diverse culture inclusive diversity disabilities</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/innovation-stories/empathy-innovation-accessibility/</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>How Microsoft is using empathy to lead innovation ...</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>How Microsoft is using empathy to lead innovation – Innovation Stories</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>It turned out her background-blurring feature wasgood for privacy reasonsas well, helping to hide messy offices during video conference calls or curious café customers during job interviews. So Machanavajhala was one of the people who influenced the decision to develop similar features forMicrosoft TeamsandSkype, and she soon found herself catapulted into the spotlight at Microsoft – as well as into the company’s work on inclusion, a joy to experience after having been excluded at a previous job where her deafness made it hard to fully participate.
 Nadella’s immediate push to embolden employees to be more creative has been exemplified by the company’sannual hackathon. Machanavajhala and others say the event has helped spark a revival where employees feel energized to innovate year-round and to seek support from their managers for their ideas – even if those have nothing to do with their day jobs.
@@ -1767,39 +1794,39 @@
 “Eye Controlwas just this accidental twist that the hackathon wheelchair project took,” Kulkarni said, “but what we have now makes everything else possible.”</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>paralyzed disabilities blind diversity disability blindness recruiting inclusion wheelchair jobs deafness culture accessibility</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>recruiting wheelchair inclusion deafness blindness blind culture disabilities diversity jobs disability paralyzed accessibility</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/on-the-issues/2020/10/21/disability-representation-statistics-diversity-inclusion/</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A first look at our disability ... - blogs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A first look at our disability representation stats - Microsoft On the Issues</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Today, we released ourannual diversity and inclusion report, including U.S. disability representation for the first time.
 This is a small but incredibly important step on our journey with disability inclusion, a journey intrinsically linked to Microsoft’s mission – “to empowereveryperson and every organization to achieve more.” The wordeveryis significant, it includes the one billion-plus people with disabilities around the world. To deliver on that promise, we must have people with disabilities in the core of our company, to share their expertise and strength to ensure that our products meet the needs of our customers and employees. Some of our proudest moments in the last few years have been the innovations driven by our talent with disabilities, from theXbox Adaptive ControllertoImmersive Readerto upcomingwellbeing features in Teams.
@@ -1810,76 +1837,76 @@
 To read more about our journey with disability inclusion, please go towww.microsoft.com/inclusivehiring. For more on the D&amp;I report, do read thisblogby our Chief Diversity Officer, Lindsay Rae McIntyre.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>employment disabilities diversity job representation inclusion culture seekers d&amp;i disability accessibility</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>inclusion representation d&amp;i employment culture job disabilities diversity disability accessibility seekers</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://blogs.microsoft.com/accessibility/</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Microsoft Accessibility Blog - Making technology easier to ...</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>blog</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ByJessica Rafuse- Director of Strategic Programs and Policy, Microsoft Accessibility</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>accessibility</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>disability</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>https://blogs.microsoft.com/accessibility/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Microsoft Accessibility Blog - Making technology easier to see, hear and use!</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>blog</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ByJessica Rafuse- Director of Strategic Programs and Policy, Microsoft Accessibility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>accessibility</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>https://blogs.microsoft.com/accessibility/ndeam2020/</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Increasing Access and Opportunity - Microsoft ...</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Increasing Access and Opportunity - Microsoft Accessibility Blog</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">  written by Jessica Rafuse Director of Strategic Programs and Policy, Microsoft Accessibility
 October at Microsoft brings falling leaves, steaming cups of pumpkin flavored drinks, the occasional ghostly costume. Most importantly October brings the 75thAnniversary of National Disability Employment Awareness Month (NDEAM) and the chance to reflect on employment for talent with disabilities.
@@ -1892,39 +1919,39 @@
 Grab your favorite pumpkin-flavored treat and get to work at creating a more inclusive workplace for everyone. Look forward to recognizing and celebrating the journey of disability inclusion throughout the month of October. Happy NDEAM!</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>hire abilities employment disabilities month national blind job awareness inclusive inclusion ndeam seekers accessible autism disability accessibility hiring</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>month hire autism inclusion awareness abilities accessible blind employment job hiring disabilities inclusive disability national accessibility ndeam seekers</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/blog/2020/06/30/microsoft-launches-initiative-to-help-25-million-people-worldwide-acquire-the-digital-skills-needed-in-a-covid-19-economy/</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Microsoft launches initiative to ... - blogs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Microsoft launches initiative to help 25 million people worldwide acquire the digital skills needed in a COVID-19 economy - The Official Microsoft Blog</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Around the world, 2020 has emerged as one of the most challenging years in many of our lifetimes. In six months, the world has endured multiple challenges, including a pandemic that has spurred a global economic crisis. As societies reopen, it’s apparent that the economy in July will not be what it was in January. Increasingly, one of the key steps needed to foster a safe and successful economic recovery is expanded access to the digital skills needed to fill new jobs. And one of the keys to a genuinely inclusive recovery are programs to provide easier access to digital skills for people hardest hit by job losses, including those with lower incomes, women, and underrepresented minorities.
 (1) The use of data to identify in-demand jobs and the skills needed to fill them;
@@ -1963,73 +1990,73 @@
 But in many ways, our ambitions are larger than this. For every part of Microsoft, including LinkedIn and GitHub, this marks a new beginning that will build on everything we have today and a new wave of technology innovation to come. We believe we can combine the best in technology with stronger partnerships with governments and nonprofits. Together we can better serve people, filling jobs and creating opportunities for individuals around the world. We should all aspire to turn a year that had a bleak beginning into a decade that has a bright finish. We bring a long-term determination and a commitment to do our part.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>employment disabilities employer recruit job inclusive representation seekers new jobs diverse accessible interview accessibility hiring</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>recruit new employer representation diverse accessible job employment inclusive disabilities hiring jobs interview accessibility seekers</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/life/the-workspace-of-the-future/</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Building the workspace of the future: sneak a look at ...</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Building the workspace of the future: sneak a look at tomorrow's Microsoft headquarters - Microsoft Life</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>But as mindsets and culture have transformed, so has the thinking about how we want to work, create, and connect. Focus and privacy can be found in a soundproof drop-in phone booth or upholstered alcove; inspiration (and, according to research, employee health) can soar in a light-filled atrium, cushy couches providing a welcome landing space for team touchdowns. Impromptu conversations, encouraged by communal work “neighborhoods,” can lead to innovation; better productivity; and faster, more agile development.
 “My life has given me a special lens for people marginalized by the intersection of race, gender, class, and disability.”</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>disability culture</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/trust-center/compliance/accessibility</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Microsoft Accessibility – Trust Center</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Microsoft is committed to ensuring our products and services are designed for everyone including over one billion people with disabilities.
 Microsoft Accessibility Conformance Reports show our commitment to accessibility. For enterprise, education, and government professionals, these reports help with procurement decisions and product integration within an organization.
@@ -2044,35 +2071,35 @@
 We provide dedicated support to our enterprise customers who have questions about accessibility within our products and services or about Accessibility Conformance Reports.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>disabilities inclusivity inclusive diverse culture accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>inclusivity diverse accessible culture inclusive disabilities accessibility</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/accessibility/microsoft-365</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Microsoft Office Accessibility | Microsoft Accessibility</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Microsoft 365 provides best-in-class apps and powerful cloud services with accessibility built-in. Designed to meet the needs of people around the globe with different abilities, the features within the Microsoft 365 apps ensure everyone can create, communicate, and collaborate on any device.
 A MailTip in Outlook on the web informs coworkers of your preference for accessible content. This prompt reminds them to run Accessibility Checker before sending an email to you and fix any issues that might make the content difficult for people with disabilities to consume.
@@ -2083,70 +2110,71 @@
 Check out short demonstrations of key accessibility enhancements in the Microsoft 365 apps (formerly Office 365).</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>abilities disabilities inclusive accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>abilities accessible inclusive disabilities accessibility</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/en-us/dynamics365/get-started/accessibility/</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Accessibility in Microsoft Dynamics 365 | Microsoft Docs</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Dynamics 365 is committed to inclusive design and accessible products and content that boost every user's productivity. Use this page to find accessibility content for Dynamics 365 apps, add-ins, or additional resources. For example, learn about keyboard shortcuts, screen readers, and high-contrast settings.
 Use the following links to learn about accessibility features in Dynamics 365 apps:
-Use the following links to learn about additional accessibility capabilities and resources from Microsoft:</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inclusive accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+Use the following links to learn about additional accessibility capabilities and resources from Microsoft:
+Accessibility information for customer engagement apps in Dynamics 365, including Dynamics 365 Sales, Dynamics 365 Customer Service, Dynamics 365 Field Service, Dynamics 365 Marketing, Dynamics 365 Project Service Automation, and Unified Service Desk.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>accessible accessibility inclusive</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/en-us/sharepoint/dev/general-development/accessibility-in-sharepoint</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Accessibility in SharePoint | Microsoft Docs</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Learn about the features, products, and services that make SharePoint accessible for people with disabilities, and find developer resources that can help you design and build apps and websites that support key accessibility scenarios.
 Accessible technology enables users to interact with computers and applications in different ways to help meet their visual, hearing, speech, dexterity, and cognitive needs. Accessible technology includes features, options, and utilities that are built into the Windows operating system and other Microsoft products, in addition to third-party hardware and software add-ons (also known as assistive technology).
@@ -2161,72 +2189,72 @@
 Table 1. Accessibility features in typical web browsers</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>disabilities accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>accessible accessibility disabilities</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://news.microsoft.com/2019/01/16/microsoft-commits-500-million-to-tackle-affordable-housing-crisis-in-puget-sound-region/</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Microsoft commits $500 million to tackle affordable ...</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Across the region, housing costs have risen and increasingly pushed out people with lower and even middle incomes. Puget Sound has become the sixth most expensive region in the country, and the region has seen a 21 percent increase in jobs since 2011, coupled with only a 13 percent increase in housing units. This problem is even more pronounced in the smaller cities around Seattle than in Seattle itself.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>jobs</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>hiring</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>https://news.microsoft.com/2019/01/16/microsoft-commits-500-million-to-tackle-affordable-housing-crisis-in-puget-sound-region/</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Microsoft commits $500 million to tackle affordable housing crisis in Puget Sound region - Stories</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Across the region, housing costs have risen and increasingly pushed out people with lower and even middle incomes. Puget Sound has become the sixth most expensive region in the country, and the region has seen a 21 percent increase in jobs since 2011, coupled with only a 13 percent increase in housing units. This problem is even more pronounced in the smaller cities around Seattle than in Seattle itself.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>https://www.microsoft.com/en-us/p/interview-guide/9nblggh0grsb</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Get Interview Guide - Microsoft Store</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>** Complete Guide for Interview Preparation with Resume Samples**
 INTERVIEW GUIDE a great WP App to help you succeed in your interview.
@@ -2244,39 +2272,39 @@
 Note - More features are coming soon in next version. Please rate ! your good rating always encourage us to bring free apps for you :)</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/life/how-to-ace-a-technical-interview-at-microsoft/</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>How to ace a technical interview at Microsoft - Microsoft Life</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>A technical interview is your chance to show you have the skills to match.
 “Hiring managers generally want to see how you think, not just that you can,” says Kenji Yamaguchi, a senior talent acquisition manager whose team recruits for various roles across Microsoft Office. “They also want to see that you care about the quality of the product you ship and the experience our customers will have.”
@@ -2287,35 +2315,35 @@
 “Sometimes showing you are agile on your feet and receptive to feedback can be even better than acing all of your interview questions,” Yamaguchi says. “It proves you have potential to grow.”</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>abilities culture interview hiring</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>abilities interview hiring culture</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/diversity/diversity-at-intel.html</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Intel Global Diversity and Inclusion</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>At Intel, we are committed to advancing diversity and inclusion at every level in our company and the broader industry. It is foundational to our business and purpose – to create world-changing technology that enriches the lives of every person on earth.
 Chief Diversity and Inclusion Officer and Vice President of Social Impact
@@ -2333,73 +2361,73 @@
 We are focused on driving a sustained culture of accessibility, embracing technology to eliminate barriers, foster innovation, and empower all people to reach their full potential.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>employment diversity inclusive representation discrimination inclusion diverse d&amp;i equal culture accessibility</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>inclusion representation diverse d&amp;i equal discrimination employment culture inclusive diversity accessibility</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>https://www.intel.gov/people</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>People - Intel</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>We are dedicated, diverse, and passionate thinkers and doers. We are your neighbors and friends. With our varied backgrounds, we are united in the mission of keeping our nation safe.
 We are innovators, advocates, and catalysts. As threats and challenges change, we continue to use our diverse skills and talents to overcome any operational or social barrier to our mission.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>diverse</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/life-at-intel.html</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>An Overview of Life as an Intel Employee</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Fearless, Inclusion, Customer Obsessed, One Intel, Truth and Transparency, and Quality
 We believe that true innovation can only happen when diverse voices can all be part of the conversation. Here, you'll be part of an international community filled with unique voices and perspectives from all backgrounds, all contributing their ideas and experiences to pushing the boundaries of technology.
@@ -2407,39 +2435,39 @@
 "Intel is a very inclusive company where everyone is seen as equals."</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>inclusive diverse culture inclusion</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>diverse culture inclusive inclusion</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>https://blogs.intel.com/jobs/2020/10/disability-visibility-seven-takeaways-from-intels-mission-to-become-the-most-inclusive-company-on-the-planet/</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Disability Visibility: Seven Takeaways From Intel's ...</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Disability Visibility: Seven Takeaways From Intel's Mission to Become the Most Inclusive Company on the Planet - We Are Intel</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>blog jobs</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Our employees with disabilities are incredible members of our team, and it’s our job to provide them with the resources they need to succeed. While we know we still have a lot of work in front of us, there’s a lot we’re already doing to create a more inclusive environment for employees with disabilities.
 1. Disability will touch every one of us at some point in our lives.According to the World Health Organization, 15% of the world’s population has some form of disability, and almost everyone will experience temporary or permanent disability at some point in life. Disabilities may include visible, physical disabilities or invisible disabilities, such as hearing loss, low vision, dyslexia, autism, diabetes, anxiety, depression, and many more.
@@ -2452,54 +2480,21 @@
 We make the impossible possible and empower millions around the world through great technology, good corporate citizenship, and inclusive culture. We are Intel, and these are our stories.</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>disabilities accommodation inclusive accommodations inclusion culture erg accessible disability autism accessibility</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>accommodations autism inclusion accessible culture inclusive disabilities disability accessibility erg accommodation</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>culture disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.intel.com/content/www/us/en/diversity/diversity-employee-groups.html</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Intel Global Diversity Employee Resource Groups</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Intel strives to provide an environment where employees from diverse backgrounds are valued, respected, challenged, acknowledged, and rewarded so they can achieve their potential and fulfill their career aspirations. We encourage employee connection through our network of Intel Chartered Employee Resource Groups. These groups unite around a significant common affinity or element of their personal identity and are focused on internal and external activities that build an environment of inclusion. Through recruiting, networking, mentoring, resource sharing and sponsored development events, our Employee Resource Groups are an important part of our culture and reinforce that Intel as a great place to work.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>diverse culture recruiting inclusion</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>culture hiring</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.intel.com/content/www/us/en/employee/services-benefits.html</t>
+          <t>https://www.intel.com/content/www/us/en/diversity/diversity-employee-groups.html</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2509,49 +2504,82 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Intel Employee HR Services and Benefits</t>
+          <t>Intel Global Diversity Employee Resource Groups</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
+          <t>Intel strives to provide an environment where employees from diverse backgrounds are valued, respected, challenged, acknowledged, and rewarded so they can achieve their potential and fulfill their career aspirations. We encourage employee connection through our network of Intel Chartered Employee Resource Groups. These groups unite around a significant common affinity or element of their personal identity and are focused on internal and external activities that build an environment of inclusion. Through recruiting, networking, mentoring, resource sharing and sponsored development events, our Employee Resource Groups are an important part of our culture and reinforce that Intel as a great place to work.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>recruiting diverse culture inclusion</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>culture hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.intel.com/content/www/us/en/employee/services-benefits.html</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Intel Employee HR Services and Benefits</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Intel is proud to offer you and your family a range of competitive benefits that help you achieve your personal best. For 2021, there are no increases in paycheck contributions, annual deductibles, or out-of-pocket maximums in health benefits. This makes it an ideal year to explore other benefits available to you such as the new dental option, life insurance, critical illness, and more. We’re offering more choices for dental coverage with a new dental HMO administered by Delta Dental, available to all U.S. blue badge employees and eligible family members.
 The Work Number® is a workforce verification solution that allows you or a third party, such as a broker or lender, to obtain written employment verification and proof of income from your employment. Through The Work Number, verifying agencies are able to access your information quickly and easily online. To process your request, you’ll need your date of hire, current employment status, and job title.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>hire employment health benefits</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>https://blogs.intel.com/jobs/2016/10/get-know-6-secret-intel-u-s-benefits/</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Get to know 6 ‘secret’ Intel U.S. benefits - We Are Intel</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>blog jobs</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>I work in recruitment marketing and every so often I get to drop in on new employee orientation sessions.  It’s always fun to talk to new employees during their first week at Intel.  Being that I’m in Arizona, topics that always seem to come up are the dry heat and where they can go to get great Mexican food.  Being that food is one of my favorite pastimes, I’m always happy to suggest my favorites.
 Intel Education Service Corp, otherwise known as IESC, is a favorite among employee benefits.  You can apply to be a part of a team that travels to developing nations for three weeks at a time to enable Intel technology.  The individuals picturedtraveled to Rwanda for their adventure.  By bringing Intel technology into the classroom to help enhance the teaching and learning experience, they were enabling the true digital classroom!
@@ -2563,72 +2591,72 @@
 Hi Ron – while this blog is specifically about US Benefits we have a vast amount of benefits around the globe. For more info about our benefits overall, feel free to check outhttp://www.intel.com/content/www/us/en/jobs/benefits.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>job employee recruitment jobs benefits opportunities</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>employee benefits job recruitment opportunities jobs</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.intel.com/content/www/us/en/blogs-communities-social.html</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Intel Communities, Blogs, and Social@Intel</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>blog</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Technology, culture, news, trends, innovations, and the people behind them.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>culture</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>https://www.intel.com/content/www/us/en/blogs-communities-social.html</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Intel Communities, Blogs, and Social@Intel</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>blog</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Technology, culture, news, trends, innovations, and the people behind them.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>https://www.intel.com/content/www/us/en/employee/leaving-intel.html</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Leaving Intel</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Welcome to the U.S. leaving Intel web site. This site contains key information regarding final pay and benefits for employees whose employment with Intel has ended.
 If your employment with Intel ends, you will receive payment, at your final rate of pay, for any vacation you have earned but not taken. Earned, unused floating holiday(s) will be paid out upon termination for California employees only.
@@ -2643,39 +2671,39 @@
 If your decision to leave Intel is due to a permanent disability, you will need to understand the differences in benefits that may be available to you. To find more information contact Reed Group at (866) 532-5664.</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>disability employment health benefits</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>health employment benefits disability</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/editorials/intels-2017-diversity-inclusion-midyear-report-road-ahead-behind/</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Intel’s 2017 Diversity and Inclusion Midyear Report and ...</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Intel’s 2017 Diversity and Inclusion Midyear Report and the Road Ahead | Intel Newsroom</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>At CES in 2015, our CEO, Brian Krzanich, announcedIntel’s plan to achieve full representationof women and underrepresented minorities in our U.S. workforce by the year 2020. This is important to us because we believe diverse and inclusive teams with diverse perspectives are more creative and innovative.
 We are now at the halfway point in that journey. Since our 2015 announcement, the social and political climate has evolved as issues of diversity and inclusion have become ever more pressing, especially in our industry. That makes our effort to achieve full representation even more urgent. We’ve come a long way, but there is still much to be done. Since taking on the role of chief diversity and inclusion officer in April, I’ve been evaluating our progress, reflecting on the lessons learned and considering how best to achieve our goals.
@@ -2688,39 +2716,39 @@
 Barbara Whye is vice president of Human Resources and chief diversity and inclusion officer at Intel Corporation.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>diversity representation inclusive inclusion diverse hiring</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>inclusion representation diverse inclusive diversity hiring</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/editorials/intels-continued-commitment-transparency-equity-all-levels/</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Intel’s Continued Commitment to Transparency and Equity at ...</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Intel’s Continued Commitment to Transparency and Equity at All Levels | Intel Newsroom</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>At Intel, we believe that a diverse workforce and inclusive culture are key to our evolution and to driving our growth. If we want to shape the future of technology, our workforce must be representative of that future. Transparency and open sharing of our data enable us to both celebrate our progress and confront our setbacks on that journey. We feel a sense of responsibility to continue to lead the industry in this space by raising the transparency bar for ourselves and, as a result, raising it for others.
 That’s why today, in keeping with that commitment, we are disclosing ourlatest workforce representation data. We are also releasing our2017 and 2018 EEO-1 pay data, as we pledged to do in October. These datasets each tell an important part of the story and point to work that lies ahead.
@@ -2738,39 +2766,39 @@
 Barbara Whye is Chief Diversity and Inclusion Officer and vice president of Human Resources for the Technology, Systems Architecture and Client Group at Intel Corporation.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>hire diversity representation inclusive inclusion diverse culture hiring</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>hire inclusion representation diverse culture hiring inclusive diversity</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/accommodations.html</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Jobs at Intel: Accommodations</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Intel recognizes and supports its obligation to reasonably accommodate applicants and employees with disabilities. We are here to help.
 Please let us knowif you need a reasonable accommodation for any part of the application, interviewing, hiring, or at any other time during the employment process. Please do not include personal medical information in the email.
@@ -2781,77 +2809,77 @@
 Grow your network of opportunities. Connect with us on LinkedIn, Facebook, Twitter, our Jobs@Intel Blog, or Weibo.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>employment disabilities accommodation employer inclusive recruiting discrimination jobs equal disability discriminate hiring accommodate</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>recruiting employer equal discriminate discrimination employment hiring disabilities inclusive jobs disability accommodate accommodation</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>https://jobs.intel.com/page/show/interviewing</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Interview Process at Intel - jobs.intel.com - Intel</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Make the most of your time with our recruiters and hiring managers. Use your interview as a time to get to know Intel and let us get to know you.
 Send or e-mail a thank-you note. Expressing your interest in the position and appreciation to the hiring team for their time is always a good gesture. Your recruiter can forward your message along to the team.</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>interview hiring</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/hiring.html</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Jobs at Intel: Hiring Process and Tips</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Found a job that interests you? Great! We encourage you to apply for all the jobs of interest that match your experience and education. Here's some information to help you.
 Our applicant tool provides you with key explanations and instructions right on each page so you can more accurately and effectively create your profile or search for and apply for jobs.
@@ -2865,77 +2893,77 @@
 Attend an Intel Jobs Event and learn about the various opportunities.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>employment job interview jobs opportunities</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>employment job opportunities jobs interview</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/candidate-help-desk.html</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Jobs at Intel: Candidate Help</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Diversity is foundational for our business success. We want to be a workplace of choice for all people and we value the unique perspectives offered by a diverse workforce. Intel does not unlawfully discriminate on the basis of race, color, religion, sex, sexual orientation, gender identity or expression, national origin, citizenship, disability, protected veteran status, age, ancestry, medical condition, genetic information, marital status, pregnancy, or any other legally protected status. This principle applies to all areas of employment: recruitment and hiring, training, performance evaluations, promotions and transfers, compensation and benefits, and social and recreational programs.
 Intel does not charge applicants a fee nor do we require candidates to be personally responsible for any fees in connection with an application for employment. Intel does not accept resumes/curricula vitae (C.V.) from headhunters or suppliers who have not signed a formal fee agreement. We select our suppliers based on specific hiring needs. Therefore, any resume received from an unapproved supplier is considered unsolicited, and Intel will not be obligated to pay a referral fee.</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>employment diversity diverse recruitment disability discriminate hiring</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>diverse discriminate employment recruitment hiring diversity disability</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>https://blogs.intel.com/jobs/2011/01/interviewing_101_being_ready_for_intel/</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Interviewing 101: Being Ready for Intel - We Are Intel</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>blog jobs</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Students and new graduates are constantly posing the question, “What can I do to better prepare myself for an interview with Intel ?” I thought it was time we write a post with some specifics, since we are entering a year where we project some heavy hiring in theintern and college graduatespace . (For those of you in theexperiencedspace, these tips can be valuable to you as well!) Hopefully some of the insights will help you be prepared and ultimately land your dream ‘gig’ at Intel. I decided I didn’t want to just supply you with MY insights – so I interviewed some of my peers for this post and hope you find their tips to be helpful!
 1. “Be very flexible on times/dates for interview–make yourself available!”
@@ -2951,73 +2979,73 @@
 Hi Tiffany, It is great to read that someone is finally highlighting the importance of “behavioral” interview questions and giving a great tip of thinking back on a variety of experiences to draw on to answer them.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>hire jobs interview hired hiring</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>hire hired hiring jobs interview</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/hiring/assessment-process.html</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Jobs at Intel: Assessment Process</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>To enhance your chances of being selected for an interview or matched to an open position, we recommend that you:
 If you are being considered for an interview, you may be contacted by an Intel recruiter to gather more information about your qualifications.</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/accessibility.html</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Accessibility at Cisco - Cisco</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>Cisco is committed to designing and delivering accessible products and technologies to meet the needs of your organization. Cisco Accessibility Initiative is a company-wide effort that stresses the importance of creating accessible products.
 Cisco is the first company to offer the first enterprise-grade desk phone that includes built-in text-to-speech functionality. Developed with collaborative input from theAmerican Council of the Blind(ACB), the software update for theCisco’s IP Phone 8800 Seriesis a huge step toward making the digital workplace more accessible for the blind and visually impaired.
@@ -3034,39 +3062,39 @@
 Cisco also contributes to accessibility standards and guidelines created by the International Telecommunications Union (ITU), the Internet Engineering Task Force (IETF), and the Telecommunications Industry Association (TIA).</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>disabilities blind accommodation accessible impaired accessibility visually</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>visually impaired accessible blind disabilities accessibility accommodation</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/wearecisco/cisco-employee-brings-hidden-disabilities-to-light</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Cisco Employee Brings Hidden Disabilities to Light - Cisco ...</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cisco Employee Brings Hidden Disabilities to Light - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>It all started during the maternity leave of my second son, when I took the time to read about hidden disabilities, or as I like to think of them, “hidden super powers.”
 My passion for people and technology has always been a driver in my career. I am today the proud manager of a great team of 20 engineers in the Technical Assistance Center (TAC) organization in Brussels, but Cisco has also given me the opportunity to be very much involved in Inclusion and Collaboration (I&amp;C) activities. So when I became aware of the world of hidden disabilities, I immediately realized the great opportunity ahead of me to make a difference at Cisco.
@@ -3086,39 +3114,39 @@
 This is wonderful to hear. I have a mild brain injury caused by encephalitis a few years ago. It is indeed “invisible” except to me and to those who know me well and what I was capable of before. It would be great to work at a place like Cisco that provides simple, minor accommodations so I could always perform at my best. Thanks and great job!</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>abilities disabilities diversity inclusive accommodations blindness inclusion disability autism</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>accommodations autism inclusion abilities blindness inclusive disabilities diversity disability</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/csr/impact/our-people.html</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>CSR Our People - Cisco</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>csr</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>We are committed to maintaining aninclusive and diverse workforce. The more perspectives we can draw on, the better we can solve global challenges. Cisco has always been committed to paying our people fairly and equitably across our global company. We are proud to have taken a national leadership role in advancing fair pay for everyone as one of the 28 founding signers of the White House Equal Pay Pledge.
 Giving back is an important part of Cisco’s culture. Through Time2Give, Cisco employees are given paid time off to volunteer and help make a positive impact.
@@ -3126,46 +3154,9 @@
 Cisco is putting people, technology, and resources to work in service of an inclusive future where technology gives everyone the tools to thrive. Visit our Environmental, Social, and Governance (ESG) Hub.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>inclusive diverse culture</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>https://www.cisco.com/c/en/us/about/careers/we-are-cisco/benefits-and-perks.html</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Benefits and Perks | Cisco Careers - Cisco</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Our high-performance culture rewards innovation, collaboration and achievement.</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>diverse culture inclusive</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3177,25 +3168,62 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>https://www.cisco.com/c/en/us/about/careers/we-are-cisco/benefits-and-perks.html</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Benefits and Perks | Cisco Careers - Cisco</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Our high-performance culture rewards innovation, collaboration and achievement.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>https://gblogs.cisco.com/uki/five-amazing-inventions-supporting-disability-in-sport/</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Five amazing inventions supporting ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Five amazing inventions supporting disability in sport</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>blog support</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>I was thinking specifically about the way technology has helped people with physical disabilities get involved in sport over the years and achieve some incredible athletic feats despite their impairments.
 I love this story. Golf-lover Anthony Netto was told he’d never be able to play the sport again after being paralysed during a tour of Iraq while serving in the army.
@@ -3206,39 +3234,39 @@
 Some of the individuals posting to this site, including the moderators, work for Cisco Systems. Opinions expressed here and in any corresponding comments are the personal opinions of the original authors, not of Cisco. The content is provided for informational purposes only and is not meant to be an endorsement or representation by Cisco or any other party. This site is available to the public. No information you consider confidential should be posted to this site. By posting you agree to be solely responsible for the content of all information you contribute, link to, or otherwise upload to the Website and release Cisco from any liability related to your use of the Website. You also grant to Cisco a worldwide, perpetual, irrevocable, royalty-free and fully-paid, transferable (including rights to sublicense) right to exercise all copyright, publicity, and moral rights with respect to any original content you provide. The comments are moderated. Comments will appear as soon as they are approved by the moderator.</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>disabilities blind representation paralysed people disabled disability</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>representation people paralysed blind disabilities disability disabled</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/diversity/honoring-leadership-advocating-for-team-members-with-disabilities</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Honoring Leadership: Advocating for Team ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Honoring Leadership: Advocating for Team Members with Disabilities - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve"> Honoring Leadership: Advocating for Team Members with Disabilities
 Two Cisco leaders were just recognized withhigh honorsfor their advocacy of inclusion and diversity at Cisco and within the community – leadership that champions the needs of our team members and friends with disabilities.
@@ -3250,85 +3278,48 @@
 These two Cisco leaders personify Cisco’s vision of building an inclusive and diverse culture and environment where people with and without disabilities benefit from the intrinsic value of work and feel welcomed, valued, respected, and heard. We are lucky to work side-by-side with them, and Cisco is a better company as a result of their efforts.</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>employment disabilities diversity inclusive blindness inclusion people culture disabled diverse autism disability accessibility</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>autism inclusion diverse people blindness employment culture inclusive diversity disabilities disability accessibility disabled</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/csr/cisco-networking-academy-empowers-the-disabled-in-sri-lanka</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Cisco Networking Academy Empowers the Disabled in Sri ...</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Cisco Networking Academy Empowers the Disabled in Sri Lanka - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>blog csr</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>In 2001, the Employers’ Federation of Ceylon (EFC) launched theNetwork on Disability, a program designed to connect Sri Lanka’s disabled community to meaningful jobs. The EFC’sICT Training Center, which launched in 2009 with the support of the International Labour Organization (ILO), has empowered more than 160 disabled people with the IT and language skills training they’ll need to thrive in a digital world. The EFC’s objective is to develop the employability skills of people with diverse disabilities in Sri Lanka by embracing the vision of “productive employment through social harmony.”
 Gunaratne was recruited as a role model to the Network on Disability in 2001 as the first employee with a disability. Trained both locally and internationally to teach, promote, and develop IT skills for individuals with disabilities, Gunaratne has been nationally and internationally recognized. In addition to winning a Gold Medal at the Assembly for Women with Disabilities in Seoul, South Korea in 2011, she also received several coveted national awards in 2007, including the Keerthi Sri Lankabhimani Desha Bandu Award, the Zonta Woman Achiever, and Most Inspirational Woman on Special Skills of the Year. Gunaratne’s commitment to the betterment of the visually impaired in Sri Lanka is exemplary.
 The training center is fully equipped with more than 50 devices specially designed for individuals with disabilities as part of a collaboration with Curtin University of Technology in Australia and SLIIT (Sri Lanka Institute of Information Technology) Malabe. The programs are also recognized by the Tertiary and Vocational Education Commission (TVEC) and within the EFC membership, which consists of 620 companies.</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>employment disabilities people disabled diverse jobs impaired disability visually</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>culture disability hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>https://blogs.cisco.com/csr/employee-volunteers-initiate-creative-csr-activities-in-france</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Employee Volunteers Initiate Creative CSR ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>blog csr</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Another meaningful accomplishment, from an inclusion perspective, is a 3-year agreement with the French government to help disabled people find jobs. The agreement focuses on 3 major topics: improving our actions to help disabled persons to stay employed, recruitment, and increasing our collaboration with the adapted sector in our region.</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>inclusion people recruitment disabled jobs</t>
+          <t>visually diverse people impaired employment disabilities jobs disability disabled</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3340,138 +3331,176 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>https://blogs.cisco.com/csr/employee-volunteers-initiate-creative-csr-activities-in-france</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Employee Volunteers Initiate Creative CSR Activities in France - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>blog csr</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Another meaningful accomplishment, from an inclusion perspective, is a 3-year agreement with the French government to help disabled people find jobs. The agreement focuses on 3 major topics: improving our actions to help disabled persons to stay employed, recruitment, and increasing our collaboration with the adapted sector in our region.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>inclusion people recruitment jobs disabled</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>culture disability hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>https://newsroom.cisco.com/video-content?articleId=1863824</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Start-up makes IoT smart stick for blind people - Cisco</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Start-up makes IoT smart stick for blind people | The Network</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Imagine trying to navigate a busy town without the benefit of sight, using only a white cane to help you safely get around. A couple of college students saw the problem and wanted to come up with a solution to make getting around town a little easier for the visually impaired.
 Soon after, they created their company, Handisco. "Handisco comes from the French prefix Handi, which is the French word for disabled people," says Florian Esteves, one of the company's co-founders.
 Handisco has been actively working with the visually impaired community in Nancy, France and have secured their first sales and will be available in September of 2017. Right now, The Sherpa is only available in France, but the co-founders hope to scale-up and make it available throughout Europe.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>impaired disabled people visually</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>visually people disabled impaired</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/csr.html</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Corporate Social Responsibility at Cisco - Cisco</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>csr</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Committed to powering an inclusive future and creating equitable access to opportunity.
 Corporate Social Responsibility (CSR) at Cisco supports the company's mission to power an inclusive future that benefits our employees, communities, and the planet.
 Creating and cultivating an inclusive work environment where employees can thrive.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>inclusive</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/careers/we-are-cisco.html</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>We Are Cisco | Cisco Careers - Cisco</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>careers</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Winning is the result of great people, dynamic innovation, and a culture that cares.
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>"From the moment I found out about the possibility of being contracted to work for Cisco and heard about their values and culture, it sounded like a dream job.”
+Winning is the result of great people, dynamic innovation, and a culture that cares.
 Culture is a specific way of life. We care deeply about a positive experience for all.
 Inclusivity is our strength and our priority. We want every employee to feel valued, respected, and heard. We thrive on diverse thinking, ideas, and practices in everything we do.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>inclusivity diverse culture</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>inclusivity diverse job culture dream</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>culture hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>https://ebooks.cisco.com/story/workforce-of-the-future/page/3/2</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>EMEAR Workforce of the Future - Turtl - Sign in</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>EMEAR Workforce of the Future</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>Conscious companycultureFor these new ways of working to be sustainable over the long-term, a strong, flexible culture is critical. Technology enables greater connectivity across far distances,but leaders need to create a culture that honors transparency, openness, and inclusion.
 “The pandemic and the rapid adoption of digital technologies is fundamentally changing the nature of work. We are seeing new patterns emerge; people want choice and flexibility, teams are more distributed and a company’s culture is more important than ever. Collaboration technology that uses AI, environmental sensors, and advanced analytics are all critical to empowering employees, keeping teams connected and productive in every location, whilst increasing workplace safety.”
@@ -3482,58 +3511,21 @@
  “The culmination of emerging technologies, the onset of the COVID-19 pandemic, and increasing demand for more flexible work environments are fundamentally reshaping the work experience. Organizations who support a rapidly evolving work culture with intuitive technological tools that enhance connectivity, engagement, and productivity will ultimately empower and position users to work effectively and safely regardless of current and future disruption.”- Ronald Van Loon, CEO, Principal Analyst at Intelligent World​​​​​World's #1 influencer in Data and Analytics, Automation, and the Future Economy</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>inclusive culture employer inclusion</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>culture employer inclusive inclusion</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>culture hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://newsroom.cisco.com/feature-content?articleId=2138508</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Security challenges of 2020 show us how to protect ... - Cisco</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Stephanie Ellen Chan is the Editorial and Video Producer at Cisco. She has a passion for writing about the intersection of culture, media, art, and technology.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>culture</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://newsroom.cisco.com/press-release-content?articleId=2131930</t>
+          <t>https://newsroom.cisco.com/feature-content?articleId=2138508</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3543,7 +3535,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cisco Doubles Down on Webex Ecosystem with Webex App Hub ...</t>
+          <t>Security challenges of 2020 show us how to protect what’s next | The Network</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3553,12 +3545,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>About CiscoCisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us onTwitter.</t>
+          <t>Stephanie Ellen Chan is the Editorial and Video Producer at Cisco. She has a passion for writing about the intersection of culture, media, art, and technology.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>inclusive</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3570,7 +3562,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://newsroom.cisco.com/press-release-content?articleId=2140455</t>
+          <t>https://newsroom.cisco.com/press-release-content?articleId=2131930</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3580,7 +3572,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comcast Business and Cisco Meraki Expand Teleworker VPN ...</t>
+          <t>Cisco Doubles Down on Webex Ecosystem with Webex App Hub | The Network</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3590,7 +3582,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us on Twitter at@Cisco.Cisco and the Cisco logo are trademarks or registered trademarks of Cisco and/or its affiliates in the U.S. and other countries. A listing of Cisco's trademarks can be found atwww.cisco.com/go/trademarks. Third-party trademarks mentioned are the property of their respective owners. The use of the word partner does not imply a partnership relationship between Cisco and any other company.</t>
+          <t>About CiscoCisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us onTwitter.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3607,21 +3599,58 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>https://newsroom.cisco.com/press-release-content?articleId=2140455</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Comcast Business and Cisco Meraki Expand Teleworker VPN Solution | The Network</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us on Twitter at@Cisco.Cisco and the Cisco logo are trademarks or registered trademarks of Cisco and/or its affiliates in the U.S. and other countries. A listing of Cisco's trademarks can be found atwww.cisco.com/go/trademarks. Third-party trademarks mentioned are the property of their respective owners. The use of the word partner does not imply a partnership relationship between Cisco and any other company.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>https://www.cisco.com/c/en/us/about/inclusion-diversity/employee-resource-organizations.html</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Cisco Employee Resource Organizations (EROs) and Networks</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cisco Employee Resource Organizations (EROs) and Networks - Cisco</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Our culture of inclusion is fueled by a thriving Inclusion and Collaboration (I&amp;C) Community – a platform for diverse groups to connect, build powerful new relationships, explore their unique passions and talents, innovate, and excel. In 196 chapters across 44 countries, our I&amp;C Community has over 25,000 active members participating in Employee Resource Organizations,  Networks, Virtual Groups, Inclusion Leadership Teams, and the annual flagship event known as Women of Impact.
 Our I&amp;C Community is doing amazing things – from expanding awareness around hidden disabilities to paying tribute to Fallen Heroes.  From standing for unity, to inspiring at-risk students to seek higher education, to leading courageous conversations that break down barriers and accelerate diversity. Together, we’re transforming our company, our communities, and the world.
@@ -3629,39 +3658,76 @@
 Our Inclusion and Collaboration Community is another way we are creating forums to innovate, exchange ideas, and think globally.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>disabilities diversity inclusion diverse culture</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>inclusion diverse culture disabilities diversity</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://blogs.cisco.com/</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>blog</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Maria Martinez, Cisco Executive Vice President &amp; Chief Operating Officer, explains why Cisco is making a $150 million commitment to build an inclusive future and help HBCUs strategically recover and flourish.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/ciscoit/transforming-the-employee-experience</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Transforming the Employee Experience ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Transforming the Employee Experience: Knocking Down the Barriers to Success - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Cisco makes huge investments to identify, interview, and hire the right candidates – on average, 3,400 each quarter. Making sure our new hires have a great experience between the offer letter and the first weeks at work is critical to make sure they don’t accept another offer – and that theythrive at Cisco.
 To find out what works and what doesn’t during onboarding, we started with the data. It comes from new hire surveys, focus groups, and sentiment analysis in online forums. While this is just getting underway, a finding that immediately popped out was the importance of a welcoming culture. Notably, new hires are disappointed when their hiring manager doesn’t reach out to them between the time the offer letter is sent and on the first day of work. We’ve shared this finding with hiring managers, so they can make these first day experiences a priority.
@@ -3671,76 +3737,76 @@
 I’m about to onboard with Cisco and it is a great feeling to know that my experience as a new hire is important to my new company!! Cant wait to get started!</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>hire interview jobs culture hiring</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>hire culture hiring jobs interview</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/tag/employee-engagement</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>employee engagement - Cisco Blogs</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>The workforce is aging and many organizations are having trouble recruiting younger talent. By the year 2025, Millennials will make up 75% of the workforce. Creating a familiar and engaging work environment is critical in attracting these young workers. The proliferation of mobile devices is driving major behavioral changes in the Millennial workforce. They expect anytime, anywhere access to anyone or anything.</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>recruiting</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>https://news-blogs.cisco.com/americas/</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Cisco News The Americas Network</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cisco News The Americas Network -</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>news blog</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Recently, our Leadership and Sales teams gathered virtually to kick off our fiscal year: gain new knowledge about Cisco’s newest innovative solutions, and to get PUMPED about the opportunities that lie ahead.
 While the topics covered ranged from our conscious culture to the ways we will drive innovation for our Small Business customers, there were some k…
@@ -3749,145 +3815,145 @@
 I recently had the distinct honor of speaking at the CKO WiSH Breakfast, hosted by our partner, SHI International Corp. The mission of WiSH (Women in SHI) is to connect and celebrate the diversity of women in technology. I always love attending events that bring women together to share inspirational stories of how they have achieved their goals and their dri…</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>culture diversity inclusion</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>diversity culture inclusion</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/m/en_us/about/careers/accessibility.html</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Accessibility for Applicants with Disabilities - Cisco Systems</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>careers</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Cisco is an equal employment opportunity employer. Consistent with applicable law, Cisco provides access and opportunities to those with disabilities. This commitment includes providing reasonable accommodation to individuals with disabilities and disabled veterans who seek to access the company's on-line application system. Cisco has made extensive efforts to ensure that its on-line application system is accessible to individuals with disabilities. However, if an applicant is unable to fully access the Cisco's on-line application system, Cisco will provide a reasonable accommodation.
 Applicants with disabilities may contact us atapplicant_accessibility@cisco.comor 1-800-553-6387 and press 0 for assistance accessing the on-line application system. Please be sure to include a detailed description of your requested accommodation, your name and preferred method of contact. Cisco will make every effort to respond to your request within one business day during normal business hours. This email alias is not for the general submissions of application materials. Application materials submitted throughapplicant_accessibility@cisco.comwill not be considered. Cisco will not provide a response to inquiries made toapplicant_accessibility@cisco.comthat are not related to accessibility of the on-line application system by persons with disabilities.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>employment employer accommodation disabilities equal accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>employer equal accessible employment disabilities accessibility accommodation</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>https://newsroom.cisco.com/feature-content?articleId=2024547</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Cancer Support Network helps Cisco employees and ...</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cancer Support Network helps Cisco employees and contractors | The Network</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>During that time, Davis worked for another company and was laid off after her last round of disability. Eight months later, she landed at Cisco and was blown away with the employee resources, including the Cancer Support Network. “When I joined, I thought, wow! What an amazing community of people who have battled themselves, or are caregivers, or loved ones of people who have gone through it,” Davis said.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/accessibility/voluntary-product-accessibility-templates.html</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Voluntary Product Accessibility Templates - Cisco</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Voluntary Product Accessibility Template (VPAT) is a document that contains a list of requirements needed for a product to conform to Section 508 of the Rehabilitation Act. The template format allows vendors to state their products' conformance to Section 508, requirement by requirement.
 If you are searching for a product VPAT that is not listed, you can view more onAll VPAT Documentspage orcontact Cisco Accessibility.
 Note: This information is supplied for market research purposes only and is subject to change. The contents of this site do not constitute either legal advice or any representation, warranty, or guarantee regarding a person's ability to comply with applicable accessibility requirements. Such a determination is the sole responsibility of the purchaser.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>representation accessibility</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/td/docs/voice_ip_comm/cuipph/AccessibilityFeatures/8800-series/P881_BK_A8830007_00_accessibility-features-8800-series.html</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Accessibility Features for the Cisco IP Phone 8800 Series</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Accessibility Features for the Cisco IP Phone 8800 Series - Cisco</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>The Cisco IP Phone 8800 Series provide accessibility features for the blind, and the visually-, hearing-, and mobility-impaired.
                   Because many of these features are standard, they can be used by users with disabilities without requiring any special configuration.
@@ -3914,35 +3980,35 @@
                      For more information, see the user guide applicable to your phone.</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>disabilities blind accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>accessible blind accessibility disabilities</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/m/en_us/about/accessibility/contact-team/ip-communications.html</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Cisco IP Communications: Accessibility - Cisco</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Today's diverse workforce creates extraordinary value for business, government,
     and education. At the same time, it introduces new challenges. How can organizations
@@ -3994,35 +4060,35 @@
 The Cisco Unity voice messaging system accommodates other disabilities as well, with features such adjustable playback speed for messages, and adjustable response times for people who need more time to respond to system prompts.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>disabilities inclusive diverse disability accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>diverse accessible inclusive disabilities disability accessibility</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/accessibility/products.html</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Products - Cisco</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Cisco Accessibility Initiative identifies global accessibility and usability requirements and establishes strategies and processes to integrate accessibility throughout Cisco operations.
 Please reach out to the accessibility team (accessibility@cisco.com) if you have any questions or need more information.
@@ -4031,107 +4097,107 @@
 To learn more, review the documentation on the accessibility features of the following Cisco Unified IP Phones models:</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>disability accessibility</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>https://meraki.cisco.com/gdpr</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Cisco Meraki | Meraki | Security, Reliability, and Privacy</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>To honor customers’ requests to export their information, Meraki has built functionality to enable accessibility and export of dashboard data.</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>accessibility</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>https://www.cisco.com/web/offer/ind/headstart2009/venue.html</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Headstart 2009 : Accommodation &amp; Travel - Cisco</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Headstart 2009 : Accommodation &amp; Travel</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>• Twin sharing  accommodation• Daily  breakfast and dinner will be provided. Over weekends – lunch will be included.• Transport facility for daily pick up and drop to Cisco campus. 
 Daily departure from theapartment: 8:00 am.• Free broadband  connection• Iron &amp;  ironing board• Washing  machine / Dryer• Telephone calls*• Laundry** Services offered at a cost. Rate list available at check - in
 Value Add -Assistance  to liaise with Real Estate agencies for accommodation in Bangalore will be provided if required.  Please contact Nakul/ Neha for your queries.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>accommodation</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>https://jobs.cisco.com/jobs/ProjectDetail/Virtual-Sales-Specialist-Collaboration/1315288</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Virtual Sales Specialist (VSS) - Collaboration</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve"> The  Collaboration group is one of Cisco’s fastest growing sales teams and  is the spring board for a rewarding career in Unified Communications.  The VSS role serves as the talent engine for Cisco Field Sales with  diverse and motivated teams that consistently deliver profitable  growth. 
  You  will discover a creative, flexible and award-winning working  environment (Fortunes #1 Best place to work 2 years running!) using the  latest Cisco technology to enable and empower you to perform to the very  best of your abilities. Our teams adapt to respond to market changes  and are all highly encouraged to give back to our local communities. 
@@ -4142,187 +4208,187 @@
  So,  you have colorful hair? Don’t care. Tattoos? Show off your ink. Like  polka dots? That’s cool. Pop culture geek? Many of us are. Passion for  technology and world changing? Be you, with us! </t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>abilities employment accommodation disabilities diversity inclusive culture diverse interview</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>diverse abilities employment culture inclusive disabilities diversity interview accommodation</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>https://jobs.cisco.com/jobs/ProjectDetail/Regional-Sales-Manager/1323501?source=Cisco+Jobs+Career+Site&amp;tags=CDC+Prof+sales-and-marketing</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Regional Sales Manager - jobs.cisco.com</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Cisco Jobs</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>We apologize, but the job you are trying to access is no longer accepting applications. Or an error occurred when trying to load this page. Please click Cisco Careers Home or Search Jobs to view other Cisco opportunities.</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/careers/communities/students-and-new-graduates.html</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Students and New Graduates - Cisco</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>careers</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>We're on a mission to be the industry leader and employer of choice for the next generation workforce.
 We take difference to heart and celebrate the diversity that fuels our innovation. Colorful hair? Don’t care. Tattoos? Show off your ink. Pop culture geek? Many of us are.
 This process helps us get to know you, and for you to learn about our people, culture, and business. We'll evaluate your skills and experience against our current business needs. We'll ask you about your academic and work experience, and you can ask questions, too. Be prepared to tell about your achievements and the value you could bring to Cisco.</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>employer culture diversity</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>culture employer diversity</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>https://community.cisco.com/t5/ip-telephony-and-phones/cisco-voice-l1-interview-questions-or-topics/td-p/2101917</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Cisco Voice L1 interview questions or topics - Cisco Community</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve"> I need help regarding my interview. Today i got call forCisco Voice L1 engineer. I have knowledge of cisco voice and i'm also CCNA certified.Please tell me what type of question they will ask or on which topics dey will concentrate for L1 position.</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>https://jobs.cisco.com/jobs/ProjectDetail/BI-Data-Senior-Analyst-Collaboration-Sales/1315012</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>BI/Data Senior Analyst - Collaboration Sales - Cisco</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BI/Data Senior Analyst - Collaboration Sales</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>We will ensure that individuals with disabilities are provided reasonable accommodation to participate in the job application or interview process, to perform essential job functions, and to receive other benefits and privileges of employment. Please contact us to request accommodation.
 But “Digital Transformation” is an empty buzz phrase without a culture that allows for innovation, creativity, and yes, even failure (if you learn from it.)
 Day to day, we focus on the give and take. We give our best, we give our egos a break and we give of ourselves (because giving back is built into our DNA.) We take accountability, we take bold steps, and we take difference to heart. Because without diversity of thought and a commitment to equality for all, there is no moving forward.</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>employment accommodation disabilities diversity culture interview</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>employment culture disabilities diversity interview accommodation</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/features/high-profile-leader-reveals-disability-helps-others-have-more-empowered-voice/</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A high-profile leader reveals his disability to help ...</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A high-profile leader reveals his disability to help others have a more empowered voice - Stories</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>As a human resources exec, Chuck Edward has long championed the voices of others and encouraged their stories. He has traveled globally, from India to Romania, with thoughtful advice for employees and job candidates to be vulnerable, open-minded and authentic. He’s a well-known, compassionate mentor who enjoys coaching people and shaping an inclusive culture that gives everyone “permission to be real.”
 But Edward, a Microsoft veteran of nearly 16 years, has largely muted his own story. While mentoring and encouraging employees with disabilities to “have a voice” and “leverage their backgrounds,” the corporate vice president has kept his own disability, diagnosed eight years ago, mostly hidden.
@@ -4342,35 +4408,35 @@
 “As human beings, we are hardwired for connection to other people who understand our experiences,” she says. “I hope that anybody who’s hiding a disability will see themselves in Chuck’s story and feel confident to not hold their secret too deeply.”</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>disabilities inclusivity employee inclusive accommodations resource culture group disability accessible</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>accommodations employee inclusivity accessible group culture inclusive disabilities resource disability</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/procurement/diversity-sep.aspx</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Supported Employment Program | Microsoft Procurement</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>To enable employment diversity and inclusion, Microsoft Real Estate and Facilities (RE&amp;F) partners with vendors and employment agencies, creating job opportunities for people with intellectual/developmental disabilities (I/DD) at Microsoft facilities across the globe.
 The mission of Microsoft's Supported Employment program is simple: partner with vendors and local employment agencies to make a substantial difference in the lives of people with I/DD. People with I/DD face particular challenges in entering the job market. However, we believe that when people are hired into jobs that match their interests and abilities, and have support, they can become successful, productive workers. Having fulfilling employment promotes independence and helps people with disabilities become fully integrated members of the community.
@@ -4397,39 +4463,39 @@
 Meet some of the people who have helped the Supported Employment Program improve and expand across the globe this year.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>hire abilities employment disabilities employer diversity job disability inclusion jobs autism opportunities hired hiring</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>hire hired employer autism inclusion abilities employment job jobs diversity disabilities opportunities disability hiring</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/blog/2020/10/21/microsofts-2020-diversity-inclusion-report-a-commitment-to-accelerate-progress-amidst-global-change/</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Microsoft’s 2020 Diversity &amp; Inclusion report: A ...</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Microsoft’s 2020 Diversity &amp; Inclusion report: A commitment to accelerate progress amidst global change - The Official Microsoft Blog</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Today, I am sharingMicrosoft’s 2020 Diversity and Inclusion report, which comes at a time marked by the ongoing COVID-19 pandemic, amplified acts of racial injustice, and the reality of global uncertainty.
 This year’s report focuses on three core areas in addition to the data: the ways that diversity and inclusion is integrated into our employee pandemic response, our commitments to addressing racial injustice, and our investment in the Allyship at Microsoft learning path. The report also includes:
@@ -4441,39 +4507,39 @@
 Grounded in neuroscience, theAllyship at Microsoftlearning path helps us understand ourselves and encourages us to take responsibility for our individual learning. What started in July 2019 as a voluntary learning program has since evolved into a required training that provides our more than 160,000 global employees a shared language and understanding of the role we each play in creating a culture of inclusion. This is especially important for a global organization, and at a time when there are many interpretations in broader society of what allyship means. We are already seeing positive progress as our communities adopt the training: By September of this year, just two months after the first four introductory courses of the program were made mandatory for all core Microsoft employees,24%– or more than 35,000 members of the workforce – had completed those modules.</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>diversity representation inclusive inclusion diverse culture</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>inclusion representation diverse culture inclusive diversity</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/features/how-gamers-with-disabilities-helped-design-the-new-xbox-adaptive-controllers-elegantly-accessible-packaging/</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>How gamers with disabilities helped ... - news.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>How gamers with disabilities helped design the new Xbox Adaptive Controller's elegantly accessible packaging - Stories</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Packaging can be annoying for any consumer (see:wrap rage). But for people with disabilities, it often creates yet another challenge in a world riddled with them, an unnecessary obstacle that leads to frustration and a delay getting to the object inside.
 Recognizing that reality, Microsoft’s Packaging Design team faced a unique challenge in creating a box for the newXbox Adaptive Controller, designed to accommodate gamers with limited mobility. The box for the device, which will beavailablefor $99.99 in September through the Microsoft Store, needed to be as accessible as what was inside. It had to enable gamers with limited dexterity, who might be using just one hand or arm, to easily open the box and remove the controller. And it had to be as high-quality and aesthetically appealing as any other Xbox packaging.
@@ -4487,39 +4553,39 @@
 “I think it’s going to change how we look at things in the industry, in terms of how we make boxes. And I think it has to,” he said. “I think as a case study of inclusive design, the Xbox Adaptive Controller is going to make a brilliant example of how you do it, and how you include your audience and designwitha population, rather thanfora population.”</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>disabilities inclusive wheelchair accessible disability accessibility accommodate</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>wheelchair accessible inclusive disabilities disability accommodate accessibility</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/stories/xbox-adaptive-controller/</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Plugged In | Microsoft Story Labs</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve"> Dan Bertholomey awoke in a hospital in June of 2010, four days after a hit-and-run driver almost killed him while he was riding his motorcycle, to the sinking knowledge that he'd lost the use of his right arm and hand.As he lay in his hospital bed, Bertholomey pondered his future. He thought about his daily life and the things he loved to do.How am I going to game again, he wondered? He'd been an avid gamer since age 10, when an original Pong console from Sears magically transformed his family's television set into an electronic playground that he could control. Bertholomey was instantly hooked. He loved the competitiveness of gaming, loved the places it took his imagination.Bertholomey continued gaming into adulthood, playing often with his son and daughter. In 2005, when he was 40, Bertholomey placed sixth on “Madden Nation,” a televised competition of the U.S.'s best “Madden NFL 06” football video game players. For him, gaming wasn't just a hobby, something he did in his spare time. It was a lifestyle.You can't fathom losing something that you love so much,said Bertholomey, 52, who lives in Mesa, Arizona.It's incredibly devastating.Bertholomey began looking for ways to play with one hand. He found someone to hack him a foot pedal that connected to his Xbox, but it didn't work well for him. He eventually taught himself to play with his left hand, but it was awkward and he couldn't play at anywhere near his previous capacity.The solution Bertholomey needed is now a reality — and it has the potential to make gaming accessible to players with disabilities worldwide. The newXbox Adaptive Controllercan be connected to external buttons, switches, joysticks and mounts, giving gamers with a wide range of physical disabilities the ability to customize their setups. The most flexible adaptive controller made by a major gaming company, the device can be used to play Xbox One and Windows 10 PC games and supports Xbox Wireless Controller features such as button remapping.Bertholomey, who is among a select group of gamers who tested the device, said the controller makes it easy to create different setups for various types of games and seamlessly switch between them. Gamers can set up three different gaming profiles on the controller and don't need to reset the device every time they change games, as they sometimes do with modified controllers.The possibilities are endless,he said.There's so much you can do with it. I've been searching for a one-handed controller for years. I'm so grateful to have a product like this. Microsoft is my hero now more than ever.With the new controller, Bertholomey is reviving a dream he'd long shelved, but never quite let go of.I want to compete again in eSports,he said.The future is bright. The future is exciting.
  Solomon Romney, a Microsoft Stores retail learning specialist in Salt Lake City, Utah, has been gaming with the new controller for a few months. Romney, who was born without fingers on his left hand, moved some controls that were difficult to navigate to the Xbox Adaptive Controller through a mix of software remapping and adding switches that he changes depending on the game. Using the device in combination with his Xbox Elite Wireless Controller allows him to play in ways he previously couldn't.I can customize how I interface with the Xbox Adaptive Controller to whatever I want,he said. “If I want to play a game entirely with my feet, I can. I can make the controls fit my body, my desires, and I can change them anytime I want. You plug in whatever you want and go. It takes virtually no time to set it up and use it. It could not be simpler.I get to redesign my controller every day and get to choose how I want to play,Romney said.For me, that's the greatest thing ever.The device also represents something less tangible to Romney — inclusion. Growing up, he was alwaysthe other, the person on the outside, the one who's different.Even as an adult, he struggles with being around children, whose blunt observations can sting. A sense of belonging was something he craved but never had. Talking about what it means to have a device created for gamers like him, Romney becomes emotional, his eyes welling.It goes to the core of everything I am, everything I've grown up with, everything I've experienced,he said. “It's nice when a person considers you. It's unbelievable when a company does it, when a company thinks about you, designs something for you.All of a sudden, I'm not the person on the outside.
@@ -4537,39 +4603,39 @@
  It was a big surprise, and it still is,he said.We can't quite believe it's happening.Hamilton said the controller is a significant advancement in the gaming industry's efforts to increase accessibility.The progress across the industry is being felt through all kinds of initiatives, but going to the extent of manufacturing commercial hardware is really a different kind of level,he said. “The kind of commitments and process involved in that make it a really powerful statement of intent. You don't commit to an endeavor like this unless it is something that you really passionately care about.There have been great people within Microsoft pushing for game accessibility for a long time,Hamilton said.But for those efforts to translate into lasting cultural change, you also need top-down support, people at higher levels who understand and care and want to empower their staff to be able to push on forwards — people like Phil Spencer and Satya Nadella.Spencer, executive vice president of gaming at Microsoft, said the new controller advances the company's commitment to enable all gamers to play.Gamingcanbe one of the great equalizers and great unifiers for society, but we need to do more to broaden that audience,he said. “The Xbox Adaptive Controller represents the positive impact technology can have, when that technology is designed to include as many people as possible.Whether someone lost the ability to play or they've never been able to try gaming in the first place, this controller will hopefully make having fun in the gaming community a possibility.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>accommodate abilities disabilities blind diversity inclusive blindness inclusion wheelchair culture disability accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>wheelchair inclusion abilities accessible blindness blind culture inclusive diversity disabilities disability accommodate accessibility</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>https://techcommunity.microsoft.com/t5/microsoft-sharepoint-blog/innovations-for-workplace-communications-and-employee-engagement/ba-p/1696149</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Innovations for workplace communications and employee ...</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Innovations for workplace communications and employee engagement in Microsoft 365</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>In an increasingly volatile world, organizational resilience depends upon the agility and responsiveness of your people. It’s more critical than ever to connect, inspire, and activate people. But it is also more difficult than ever. While many people may have adapted to working remotely, we hear from customers that it’s challenging to connect people, particularly outside of their core working groups, to drive culture and communication, and foster knowledge sharing and innovation.
 Communicators have also told us that to engage an audience that represents diverse generations and workstyles, you need to reach people where they are. You can share news and announcements to people and engage them across your SharePoint intranet, and now, Teams and Yammer.
@@ -4577,39 +4643,39 @@
 Because customers emphasize the need to connect and engage everyone, across the organization, we continue to invest in communities that foster a culture of inclusion, where everyone feels empowered to contribute to the conversation.</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>inclusive inclusion diverse culture accessible</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>inclusion diverse accessible culture inclusive</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/blog/2015/08/05/the-employee-experience-at-microsoft-aligning-benefits-to-our-culture/</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>The employee experience at Microsoft: Aligning benefits to ...</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The employee experience at Microsoft: Aligning benefits to our culture - The Official Microsoft Blog</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>When I look at how rapidly the traditional workplace is changing, not just at Microsoft, but throughout business in general, I see a tremendous opportunity for companies to put a stake in the ground around what they believe in and what kind of culture they want to build together with employees. This is certainly the case with Microsoft, as we evolve our culture to one that embodies a growth mindset and that embraces diversity and inclusion.
 As we ask our employees to bring their “A” game to work every day to achieve our mission, we believe it’s our responsibility to create an environment where people can do their best work. A key component of this is supporting our employees with benefits that matter most to them. This is why today we’re announcing enhancements to our U.S. corporate employee benefits in three areas that employees consistently rank among the most important: having time to renew; saving for the future; and flexibility needed to spend time with new children.
@@ -4619,77 +4685,77 @@
 The people of Microsoft truly are what make our company great. These changes are in direct support of the culture we aspire to have — one that allows people to build meaningful careers. We will continue to listen to employee feedback to establish benefits and build an overall employee experience that raises the bar in our industry, creates a more inclusive environment, and recognizes the importance of our people to the continued success of Microsoft.</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>diversity employee disability inclusive inclusion benefits culture</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>employee benefits inclusion culture inclusive diversity disability</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/2021/02/04/microsoft-unveils-new-employee-experience-platform-microsoft-viva-to-help-people-thrive-at-work/</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Microsoft unveils new Employee Experience Platform ...</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Microsoft unveils new Employee Experience Platform — Microsoft Viva — to help people thrive at work - Stories</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>The announcement comes as economic and social trends are driving durable changes in workforce engagement. Amid the shift to an increasingly distributed and digital work environment, demand has grown for solutions that support corporate culture, knowledge discovery, on-the-job learning and employee wellbeing. Analysts size the nascent Employee Experience Platforms (EXP) category at $300 billion in annual spend. It spans what is today a fragmented market of services, infrastructure and hundreds of tools, many that go undiscovered and underutilized by employees at the companies that have invested in them.
 “As the world of work changes, the next horizon of innovation will come from a focus on creativity, engagement and wellbeing so organizations can build cultures of resilience and ingenuity,” said Jared Spataro, corporate vice president, Microsoft 365. “Our vision is to deliver a platform for the employee experience that helps organizations create a thriving culture with engaged employees and inspiring leaders.”</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/on-the-issues/2019/07/12/the-power-of-inclusion-extending-our-learnings-from-the-supported-employment-program/</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The power of inclusion, extending ... - blogs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The power of inclusion, extending our learnings from the Supported Employment Program - Microsoft On the Issues</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>blog support</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Our mission at Microsoft is to empower every person and every organization on the planet to achieve more. That includes the 1+ billion people with disabilities around the world. We believe that people with disabilities are a strength for our company and a talent pool that adds not just diversity but expertise and empathy that make our products, services and culture better. Under this guiding principle, over the last several years we have launched employment programs focused on bringing in the untapped talent of people with disabilities. One of those programs is our Supported Employment program run by our Real Estate and Facilities team. Since the program started, over 270 supplier positions have been filled by external staff with intellectual and developmental disabilities (IDD) on Microsoft campuses globally, and that number is steadily growing. The learnings have been immense and have helped shape our approach to external staffing. We are sharing these learnings with our supplier base of over 30,000 organizations around the world.
 The mission of Microsoft’s Real Estate and Facilities Supported Employment program is simple: partner with suppliers and local employment agencies to make a substantial difference in the lives of people with intellectual and developmental disabilities who have historically been overlooked in the job market. To date, the Supported Employment program has resulted in external staff with disabilities across 30 unique roles within supplier companies, including receptionist, groundskeeper, bus washer, day porter, office administration, project coordinator, common area reset technician, assistant chef and dishwasher.
@@ -4699,151 +4765,151 @@
 The people who have been a part of the Supported Employment Program are the strongest evidence of the value of inclusion. We encourage you to check out the stories of some of the employees in Puget Sound with these short videos:Tanya Harris, production assistant at Suddath;Austin Landon, common area reset technician at CBRE;Kyle Van Allan, crew member at Northwest Landscape Services; andLeila Miles, receptionist at Exela Technologies. We are happy to report that since these videos were released, Austin Landon has been promoted to project coordinator at CBRE on the Supported Employment Program team in Redmond.</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>employment disabilities diversity disability inclusion recruitment culture hired hiring</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>hired inclusion employment culture recruitment hiring diversity disabilities disability</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/transform/now-its-personal-unilevers-digital-journey-leads-to-real-results-for-consumers-and-employees/</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Now it’s personal: Unilever’s ... - news.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Now it’s personal: Unilever’s digital journey leads to real results for consumers and employees | Transform</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>This creates a representation of every machine and process, offering visibility across all levels of the plant. The collected data is mined for insights and patterns using advanced analytics and machine learning algorithms, which can predict outcomes based on historical data.
 “We are creating a culture and organization which is data-intelligent across our end-to-end supply chain, supported with the data, analytics and insights to make smarter, faster decisions to understand, anticipate and exceed consumer expectations,” says Penrith.</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>culture representation</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>representation culture</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/microsoft-365/customer-stories</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Microsoft 365 Customer Stories</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>Kohler Co. embraces culture of agility and productivity with Microsoft 365, builds core strengths to provide gracious living for customers.
 O2 dials up a culture change with effective remote work in Microsoft Teams, saves costs and boosts sustainability along the way.
 Office Depot keeps culture and community strong, conserves resources with Microsoft Teams as a platform.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/blog/2020/06/05/change-in-ourselves-helps-drive-change-in-the-world/</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Change in ourselves helps drive ... - blogs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Change in ourselves helps drive change in the world   - The Official Microsoft Blog</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve"> As a company, we need to look inside, examine our organization, and do better. For us to have the permission to ask the world to change, we must change first. We have to embrace the same speed and mindset that we do in anticipating and building for future technological shifts. Each day, we work to bridge the gap between the culture we espouse and our daily lived experience, but we must do more and do it faster. In order to be successful as a business in empowering everyone on the planet, we need to reflect the world we serve. This is our commitment; we have goals and programs to improve representation in all roles and at all levels. We’re investing in the talent pipeline broadly, as we’ve expanded our connections with Historically Black Colleges and Universities. We also have to create an environment where all voices are heard and valued, that’s why inclusion is a core priority for each one of us. I ask each of us to recommit to our shared D&amp;I priority, participate in our inclusion learning programs, use the tools and resources we have shared on becoming an effective ally for others. We have the capabilities to make Microsoft more diverse and inclusive, but we must do the work. 
  We also have a responsibility to use our platform and resources intentionally to address systemic inequities in our communities and in society broadly. This is the work we need to do to have lasting impact. For example, we’re using our technology and our voice toward a more equitable criminal justice system with our Criminal Justice Reform Initiative . We created our Supplier Diversity program 15 years ago, so our supplier companies better reflected the diversity of our customers. Today, it makes up nearly 10 percent of our supplier spend. That spend has an amplifying effect, growing the local economies in the communities where those businesses are located. We need to keep building on this work in every community we operate in. 
  I have heard from many employees over the past several days, expressing calls for action, calls for reflection, calls for change. My response to all of you is this: Yes. We have to act. And our actions must reflect the values of our company and be directly informed by the needs of the Black and African American community. We must continue to nurture the energy and passion that the Blacks at Microsoft employee resource group fueled in all of us since its founding in 1989. We have been on a cultural transformation journey and must accelerate our pace of change. Each of us, starting with me, must look at where we are as individuals, confront our fixed mindset and act. Our humanity is what calls out to us to make the world a better place. </t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>diversity employee inclusive representation resource inclusion diverse d&amp;i group culture</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>employee inclusion representation diverse d&amp;i group culture inclusive diversity resource</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/blog/2021/03/31/mutual-empowerment-through-mentorship-sponsorship-and-allyship/</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Mutual empowerment through ... - blogs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Mutual empowerment through mentorship, sponsorship and allyship - The Official Microsoft Blog</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Jenny Lay-Flurrie and Jacky Wright first met in 2012 while both were on a panel sponsored by the Women at Microsoft employee resource group (ERG). The connection was instant. Both Brits had moved to the U.S. to work with Microsoft – Jacky had just joined Microsoft as the vice president of IT Strategic Services, while Jenny had already been with Microsoft since 2006 and was moving into a new role with a dedicated focus on driving accessibility.
 “After sharing the stage with Jacky, I remember my overwhelming thought was, ‘Oh, I need to spend more time with her!’” Jenny said. She reached out to Jacky afterward, had lunch, and asked Jacky to be her mentor. “She’s blunt, says it like it is, and is deeply passionate about diversity and inclusion – she’s a class act and a really good human.”
@@ -4856,39 +4922,39 @@
 Tune in to a recording of a conversation Jennie Lay-Flurrie and Jacky Wright had in April 2020 as part of the Women atMicrosoft ERG Meet our Leaders series, or download the transcript to the conversationhere.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>disabilities diversity employee inclusive resource accommodations inclusion erg culture group deafness disability accessibility</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>employee accommodations inclusion deafness group culture inclusive diversity disabilities resource disability accessibility erg</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/life/widening-the-spectrum/</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Widening the spectrum - Microsoft Life</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>“By having people with disabilities in the fabric of our company, [we’re] building in a diverse workforce that then represents the one billion people with disabilities out there,” said Lay-Flurrie, Microsoft’s chief accessibility officer. “We’re going to be building better products, better services, websites . . . anything we do will work across the spectrum of being human.”
 That spectrum includes many types of people who have talent and passion and who can help change the world. People like Joey Chemis, who came to work at Microsoft through the company’s program to recruit and hire people with autism, a program that started two years ago.
@@ -4904,39 +4970,39 @@
 Chemis still feels the same commitment today that he felt during his interviews, from the work he now does talking to new recruits going through the program to the way the Redmond campus regularly reminds him of how Microsoft supports employees. “I love the fact that it’s an inclusive culture and that inclusion is written all over the elevators and all over the walls,” he said. “You’re going to come here, you’re going to try things, you’re going to experiment. Some of the experiments won’t work out, but it’s OK because the end goal is for you to learn and develop and make great stuff.”</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>hire abilities disabilities recruit inclusive recruiting accommodations hiring inclusion culture diverse jobs accommodating interview autism accessibility</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>hire recruit recruiting accommodations autism inclusion diverse abilities accommodating culture hiring disabilities inclusive jobs interview accessibility</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>https://news.microsoft.com/on-the-issues/2019/09/25/accessibility-supportability-anne-taylor/</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>‘We are at a crossroads’ – How Microsoft’s Accessibility ...</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>‘We are at a crossroads’ – How Microsoft’s Accessibility team is making an impact that will be felt for generations – On the Issues</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>news support</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>When it comes to accessibility, Anne Taylor is not afraid to share her point of view. Serving as Director of Supportability in Microsoft’sAccessibilityprogram, she ensures the teams designing Microsoft products and services always consider people with disabilities. She helps engineers understand what does or doesn’t work from an end user’s perspective. Taylor brought her extensive accessibility advocacy experience and knowledge to Microsoft, helping to transform the company’s culture, when she joined in May 2015. During her first year at Microsoft, she became a key member of the Hackathon team that brought Microsoft’sSeeing AIapp to market. The app is designed to help people who, like Taylor, are blind, by using their smartphones to describe the world around them.
 “We are at a crossroads,” says Taylor. “If we are vigilant and intentional about creating inclusive technology, then tech will level the playing field. If tech doesn’t adopt accessibility as a cause, then I think people with disabilities will be in a worse condition than they were in the past.”
@@ -4962,74 +5028,74 @@
 For more on Microsoft’s commitment to inclusive products, services and design, visitMicrosoft Accessibilityand to learn about the the New York Times Best Seller Tools and Weapons: The Promise and the Peril of the Digital Age visitaka.ms/toolsandweaponsbook.And follow @MSFTIssueson Twitter.</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>hire disabilities blind inclusive disability culture accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>hire accessible blind culture inclusive disabilities disability accessibility</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>https://techcommunity.microsoft.com/t5/microsoft-forms-blog/microsoft-forms-is-committed-to-inclusive-design-and-accessible/ba-p/257057</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Microsoft Forms is committed to inclusive design and ...</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Microsoft Forms is committed to inclusive design and accessible content - Microsoft Tech Community</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Microsoft Forms allows users to quickly and easily create custom quizzes, surveys, questionnaires, registration forms, and more. In our commitment to provide inclusive design and accessible content, we continue to improve the Forms experience for all customers b y following Microsoft Accessibility Standards (MAS). 
  People who are blind or with low vision rely on a screen reader to help them detect and read elements on the screen. We want to ensure every element is clearly understood by providing better context without abundant messaging. For example, “Private” in a group form is no longer read a single word but expressed more clearly as “This is a private group” when you move focus to group forms name.
 Keyboard accessibility is one of the most important aspects of web accessibility. Customers with limited mobility rely on a keyboard to access all functionality. People who are blind also typically use a keyboard for navigation. We provide full navigation capabilities for all elements so that customers can successfully accomplish any task with a keyboard. Additionally, we provide keyboard shortcuts for key actions, such as deleting a photo by pressing the “Delete” key on the keyboard.</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>inclusive blind accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>accessible blind accessibility inclusive</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/accessibility/supplier-toolkit-resources</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Supplier Web Accessibility Tools | Microsoft Accessibility</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>As we pursue our mission of empowering every person on the planet, we want to share what we've learned about accessibility with our suppliers. Whether you are just starting out and need basic disability etiquette or want to test code to the latest standards, check out these helpful resources.
 With more than 1 billion people with disabilities in the world, Microsoft believes accessibility and inclusion are essential to delivering on our mission. Technology allows people to achieve more and helps strengthen education opportunities, while also facilitating inclusion for people with disabilities.
@@ -5046,107 +5112,107 @@
 Explore specific accessibility guidelines for each social media platform.</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>disabilities accommodations inclusive inclusion disability hiring accessibility</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>accommodations inclusion hiring disabilities inclusive disability accessibility</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/en-us/compliance/regulatory/offering-WCAG-2-1</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Web Content Accessibility Guidelines - Microsoft ...</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Web Content Accessibility Guidelines - Microsoft Compliance | Microsoft Docs</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>The Web Content Accessibility Guidelines (WCAG) provide a framework for making web content more accessible for people with disabilities. WCAG version 2.0 was published in 2008 by the World Wide Web Consortium (W3C), an international organization dedicated to creating web standards, and updated to WCAG 2.1 in June 2018. In 2012, WCAG 2.0 was also published by the International Organization for Standardization (ISO) as ISO/IEC 40500:2012.
 Microsoft is a major software and cloud-services provider to consumers, businesses, and governments around the world. To assist customers in making purchasing decisions, Microsoft publishes Accessibility Conformance Reports describing the extent to which our products and services support the WCAG criteria. This information can help Microsoft customers determine whether a particular product or service will meet their specific needs.</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>disabilities accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>accessible accessibility disabilities</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/en-us/windows/win32/accessibility/accessibility-whatsnew</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>What's new in Windows accessibility ... - docs.microsoft.com</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>What's new in Windows accessibility for developers - Win32 apps | Microsoft Docs</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>The Windows platform is constantly being updated with new accessibility and automation features for developers.
 For more info on the latest tools available for testing the accessibility implementation of your Windows and web applications, seeTesting for accessibility.</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>accessibility</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>https://blogs.microsoft.com/accessibility/10-habits-to-create-accessible-content/</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>10 Habits to create accessible content - Microsoft ...</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>10 Habits to create accessible content - Microsoft Accessibility Blog</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t xml:space="preserve">  written by Clint Covington Group Program Manager, E+D Accessibility
 Over 70% of disabilities are invisible. You may not know if someone in your distribution list or team has a disability. When you build and share accessible content, you empower people with disabilities at home, work and school, especially virtual school. As a father of a kindergartener, I see firsthand the challenges remote learning introduces to families. For those with disabilities, both students and parents, there is an additional layer, as every piece of content needs to be accessible.
@@ -5156,35 +5222,35 @@
 Want to learn more? Check out the content on our support site linked from theMake your content accessible to everyone with the accessibility checker.</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>disabilities inclusivity inclusive disability accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>inclusivity accessible inclusive disabilities disability accessibility</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>culture disability</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/en-us/learn/certifications/request-accommodations</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Request accommodations | Microsoft Docs</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>We’re committed to ensuring that every person who’s interested in taking Microsoft Certifications can do so in a way that is fair and accurately reflects their skills and abilities. This means providing accommodations when needed. Accommodations can include special equipment for those with low vision or who are hard of hearing, breaks for medical reasons, or extra time for testing because the exam is not in your native language.
 Examples of situations requiring accommodations include but are not limited to needing:
@@ -5196,35 +5262,35 @@
 To request exam accommodations, pleasesubmit an accommodations request with PSIprior to scheduling an exam. PSI will respond to the request within 48 business hours.</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>abilities accommodations accommodation</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>accommodations abilities accommodation</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>https://www.microsoft.com/en-us/microsoft-365/business-insights-ideas/resources/phone-interview-questions-ask-new-hires</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Phone Interview Questions to Ask New Hires - microsoft.com</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Phone Interview Questions to Ask New Hires</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Tempted to say “You’re hired!” to a job applicant that looks perfect on paper? Hold the phone! There are aspects of a candidate’s qualifications and personality that you can check during a phone interview.
 If you’re not sure what to ask, here are ten phone interview questions to bring up during a phone screening and what the answers can tell you.
@@ -5237,77 +5303,77 @@
 An engaged candidate will rarely give a “No” for this question. He will raise phone interview questions about his specific role, the organizational hierarchy or another question about the business to convey his knowledge and interest. The answer can also help reassure you as the interviewer that the candidate sees himself working at your business.</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>hire abilities interview culture hired hiring</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>hire hired abilities culture hiring interview</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/news/intel-announces-expanded-paid-leave-benefits/</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Intel Announces Expanded Paid Leave Benefits | Intel Newsroom</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>What’s New:Beginning Jan. 1, 2020, Intel is expanding U.S. paid leave benefits to better support employees during life’s critical moments. These changes are part of Intel’s holistic, comprehensive and inclusive benefit offerings.
 Why It Matters:These enhancements are part of Intel’s continued investment in benefits to support employee well-being. By enhancing its paid leave benefits, Intel allows employees to focus on their families and loved ones in times of need so they can return to work with the proper support. This makes Intel a better place to work for everyone.</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>inclusive leave benefits</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>inclusive benefits leave</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/latest-news/</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Latest News | Intel Newsroom</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Newsroom Home</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Intel announces the appointment of Dawn Jones as chief diversity and inclusion officer and vice president of social impact.
 Artificial intelligence developer team designs a voice-activated backpack that can help the visually impaired navigate.
@@ -5317,116 +5383,116 @@
 Intel study assesses Gen Z's expectations on diversity, their experiences of bias and how these contribute to career paths.</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>employer diversity inclusion wheelchair impaired visually</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>employer wheelchair inclusion visually impaired diversity</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/jobs/jobs-at-intel.html</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Careers at Intel</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>jobs</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>We hold ourselves accountable for being customer obsessed, inclusive, and fearless, with a critical focus on quality and acting as one company.
 Curious about our hiring process or how to prepare for an interview? You can find answers to these questions and much more at our candidate help desk.</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>interview inclusive hiring</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>hiring interview inclusive</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/news-releases/new-intel-created-system-offers-professor-stephen-hawking-ability-to-better-communicate-with-the-world/</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>New Intel-Created System Offers Professor Stephen Hawking ...</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>New Intel-Created System Offers Professor Stephen Hawking Ability to Better Communicate with the World | Intel Newsroom</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Hawking has an MND related toamyotrophic lateral sclerosis(ALS), a condition that has progressed over the years. He is almost entirely paralyzed and communicates through technology.
 “Medicine has not been able to cure me, so I rely on technology to help me communicate and live,” said Hawking. “Intel has been supporting me for almost 20 years, allowing me to do what I love every day. The development of this system has the potential to improve the lives of disabled people around the world and is leading the way in terms of human interaction and the ability to overcome communication boundaries that once stood in the way.”
 Quadriplegia and MND affect over 3 million people worldwide. MND impacts voluntary muscle activities, like speaking, walking, swallowing and general movement of the body. Progressive in nature, it causes increasing disability and eventually death.</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>paralyzed people disabled disability</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>disability people disabled paralyzed</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/news/intel-artificial-intelligence-opens-door-mobility-quadriplegic-community/</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Intel Artificial Intelligence Opens Door to Mobility for ...</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Intel Artificial Intelligence Opens Door to Mobility for Quadriplegic Community | Intel Newsroom</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>“Today on International Day of Persons with Disabilities, it’s important to recognize the ways technology can help people regain mobility and control of their lives. The Wheelie 7 kit from HOOBOX Robotics is a great example of using AI to enable people with limited mobility to move around using natural facial movements.”– Anna Bethke, leader of AI for Social Good, Intel
 How It Works:Taking just seven minutes to install, the Wheelie 7 kit allows users to pick from 10 facial expressions to control their motorized wheelchair – moving forward, turning and stopping. Instead of invasive body sensors, the Wheelie 7 uses a3D Intel® RealSense™ Depth Camera SR300mounted on the wheelchair to stream data that AI algorithms process in real time to control the chair. Given the importance of immediate responsiveness, HOOBOX uses Intel® Core™ processors and theIntel® Distribution of OpenVINO™ Toolkitto accelerate the inferencing of facial recognition software.
@@ -5434,39 +5500,39 @@
 Why It’s Important:The National Spinal Cord Injury Statistical Centerestimatesthere are approximately 288,000 people in the United States living with spinal cord injuries, and about 17,700 new cases every year. A 2018studyfound that physical mobility has the largest impact on the quality of life for people with spinal cord injuries. Mobility is often enabled through caregivers or through a motorized wheelchair with complex sensors placed on the body that require special education to operate. The Wheelie 7 uses AI and a camera, without invasive body sensors, providing users with independence and control over their location.</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>wheelchair disabilities</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>https://newsroom.intel.com/editorials/intel-rule-action-improve-diversity-legal-profession/</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>The Intel Rule: Action to Improve Diversity in the Legal ...</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The Intel Rule: Action to Improve Diversity in the Legal Profession | Intel Newsroom</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>In 2004, Intel joined more than 100 other corporations to call for concrete action to promote diversity in the legal profession. That declaration reflected the shared recognition by Intel and our peers that “the legal and business interests of our clients require legal representation that reflects the diversity of our employees, customers and the communities where we do business.” We pledged to “make decisions regarding which law firms represent our companies based in significant part on the diversity performance of the firms” and “to end or limit our relationships with firms whose performance consistently evidences a lack of meaningful interest in being diverse.” We earnestly believed that our call to action would prompt meaningful change in the legal profession and increase the number of women and minority attorneys representing Intel as outside counsel.
 Fifteen years have passed since that call to action, and many corporations and law firms have made progress. At Intel today, we believe our outside counsel roster is among corporate America’s most diverse, and we regularly partner with our outside firms to provide opportunities to diverse lawyers, to set challenging representation goals and to award bonuses for outstanding progress. Over the years, we and our law firm partners have pioneered or adopted nearly every available tool to increase the diversity of our legal teams, including mentoring programs and clerkships. These improvements are part and parcel with Intel’s values-driven desire to become the world’s most inclusive company – a goal we support with our time, talents and resources. For example, in 2015 we set a goal to reach full market representation of women and underrepresented minorities in our U.S. workforce by 2020. We committed $300 million to achieve this goal and to support the broader goal of improving diversity and inclusion in the entire technology industry. We achieved full market representation of women and underrepresented minorities in our U.S. workforce in 2018, two years ahead of schedule.
@@ -5478,35 +5544,35 @@
 Today, we call on corporate law departments to also renew our shared commitments to take concrete steps to develop and hire diverse outside teams. At Intel, we pledge our more than $300 million in annual outside counsel spending to this goal, in the belief that by declining to hire firms that are average or below average on diversity will spur the progress our profession needs to bring about change now, not in 50 years – an effort worthy of the spirit of Moore’s Law.</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>hire diversity inclusive representation inclusion diverse</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>hire inclusion representation diverse inclusive diversity</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>culture hiring</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>https://www.intel.com/content/www/us/en/diversity/accessibility-overview.html</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Intel</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Committed to a Culture of Accessibility - Intel</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Committed to a Culture of Accessibility</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>We are focused on driving a sustained culture of accessibility, embracing technology to eliminate barriers, foster innovation, and empower all people to reach their full potential.
 Intel is committed to a culture of accessibility. We encourage every employee to be bold and fearlessly focused on going beyond what they thought possible. Individuals with disabilities add significant value to our workforce and economy. Intel believes that, in order to shape the future of technology, we must be representative of that future.
@@ -5521,105 +5587,31 @@
 A free, open source software to enable people with severe disabilities to communicate.</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>paralyzed disabilities culture wheelchair disability accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>wheelchair accessible culture disabilities paralyzed disability accessibility</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>culture disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>https://simplecore.intel.com/newsroom/news-releases/idm-manufacturing-innovation-product-leadership/</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Intel CEO Pat Gelsinger Announces ‘IDM 2.0’ Strategy for ...</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>This build-out represents an investment of approximately $20 billion, which is expected to create over 3,000 permanent high-tech, high-wage jobs; over 3,000 construction jobs; and approximately 15,000 local long-term jobs. Today, Arizona Gov. Doug Ducey and U.S. Secretary of Commerce Gina Raimondo participated with Intel executives in the announcement. Gelsinger commented: “We are excited to be partnering with the state of Arizona and the Biden administration on incentives that spur this type of domestic investment.” Intel expects to accelerate capital investments beyond Arizona, and Gelsinger said he plans to announce the next phase of capacity expansions in the U.S., Europe and other global locations within the year.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>jobs</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>https://blogs.intel.com/jobs/2020/01/an-interview-with-intel-polands-super-intern/</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>An Interview with Intel Poland’s “Super Intern” - We Are Intel</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>blog jobs</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>That’s the case with Michal Paszkowski, an 18-year-old intern, who, over the course of two summer internships in 2018 and 2019, created a canonical form of LLVM compiler representation in cooperation with his Intel buddy, Radoslaw (Radek) Drabinski. Radek, a graphics software engineer in the Visual Technologies Team, served as Michal’s Intel mentor during both internships.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>culture</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://newsroom.cisco.com/</t>
+          <t>https://simplecore.intel.com/newsroom/news-releases/idm-manufacturing-innovation-product-leadership/</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cisco Newsroom | The Network</t>
+          <t>Intel CEO Announces ‘IDM 2.0’ Strategy for Manufacturing, Innovation,...</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5629,289 +5621,331 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>News Summary: Socio Labs’ modern event technology platform will advance Cisco’s vision to deliver inclusive experiences during in-person, virtual and</t>
+          <t>This build-out represents an investment of approximately $20 billion, which is expected to create over 3,000 permanent high-tech, high-wage jobs; over 3,000 construction jobs; and approximately 15,000 local long-term jobs. Today, Arizona Gov. Doug Ducey and U.S. Secretary of Commerce Gina Raimondo participated with Intel executives in the announcement. Gelsinger commented: “We are excited to be partnering with the state of Arizona and the Biden administration on incentives that spur this type of domestic investment.” Intel expects to accelerate capital investments beyond Arizona, and Gelsinger said he plans to announce the next phase of capacity expansions in the U.S., Europe and other global locations within the year.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>inclusive</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>hiring</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>https://blogs.intel.com/jobs/2020/01/an-interview-with-intel-polands-super-intern/</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>An Interview with Intel Poland’s “Super Intern” - We Are Intel</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>blog jobs</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>That’s the case with Michal Paszkowski, an 18-year-old intern, who, over the course of two summer internships in 2018 and 2019, created a canonical form of LLVM compiler representation in cooperation with his Intel buddy, Radoslaw (Radek) Drabinski. Radek, a graphics software engineer in the Visual Technologies Team, served as Michal’s Intel mentor during both internships.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://newsroom.cisco.com/</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cisco Newsroom | The Network</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Webex: Bringing accessibility and inclusivity to the forefront
+News Summary: Socio Labs’ modern event technology platform will advance Cisco’s vision to deliver inclusive experiences during in-person, virtual and</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>accessibility inclusivity inclusive</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>culture disability</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>https://blogs.cisco.com/news/expanding-well-being-care-beyond-our-employees-in-response-to-covid-19</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Expanding well-being &amp; care beyond our employees in ...</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Expanding well-being &amp; care beyond our employees in response to COVID-19 - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>news blog</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Today, we’re seeing this new way of putting people first as people and companies alike step into conversations they shied away from in the past — from discrimination to new ways of working. We’ve become more aware of how to support those who are most vulnerable, how to aid frontline workers and teachers, how companies can help their employees, and how crisis can lead to community and even technology innovation. And we have come to realize that our purpose in this new world of challenges is to power an inclusive future for all.
 By taking care of the well-being of our employees, families, and communities, we are working toward inspiring an inclusive future that will bridge our current and future generations. Now, more than ever, it’s important to be present, create dialogue, and drive action on a range of initiatives that extend beyond business and culture, to include well-being, social equality, and activism.</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>culture inclusive discrimination</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>https://www.cisco.edu/about/offices/human-resources/new-employees</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>New Employees | Cisco College</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>New employees are expected to attend the orientation where various topics will be discussed, e.g., vision, mission, goals, values, benefits, and operational guidelines, etc. Each employee will receive an New Hire Packet to bring to orientation and assist them with the acclimation process.</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>hire</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>hiring</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>https://www.cisco.edu/about/offices/human-resources/employment</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Employment | Cisco College</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>Welcome to the Cisco College Employment page! Please review our available opportunities below, and see if we have a place for you. The college is an equal opportunity employer, and we are always searching to fill our posted positions with dedicated, resourceful people.
 The benefits of working in higher education are many and allow you to plan well for your future. Along with retirement savings (Teacher Retirement System or Optional Retirement Plan – for qualified positions), Cisco College offers a host of benefits available to full-time employees. They include: health, optional life, accidental death, vision, dental insurance, short/long term disability, and TexFlex - a pretax flexible spending account that can be used for out of pocket medical expenses or qualified childcare expenses.
 Christina Mendenhall M. Ed.Disability Services Coordinator717 E. Industrial BlvdOffice 5– Abilene Educational CenterAbilene, Texas 79602(325) 794-4406</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>employment employer opportunity equal disability</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>opportunity employer equal employment disability</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>disability hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>https://newsroom.cisco.com/feature-content?articleId=2101781</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Episode 11: Diversity &amp; Inclusion in Cybersecurity - Cisco</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Today, security is critical not just for large enterprises, but also small businesses, the public sector, and individuals of every race, gender, age, religion, and culture, in the developing and developed world alike. On this episode of TechBeat, we explore the intersection of cybersecurity and inclusion with Cisco’s Global Lead for Inclusion, Trey Boynton, and Cisco security experts Dug Song, Lothar Renner, Kerry Singleton and Alejandra Hernandez-Montaño.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>culture inclusion</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>https://newsroom.cisco.com/press-release-content?articleId=2099645</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Cisco Completes Acquisition of BabbleLabs | The Network</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>news</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Cisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us on Twitter at@Cisco.</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>inclusive</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>culture</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>https://newsroom.cisco.com/feature-content?articleId=2101781</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Episode 11: Diversity &amp; Inclusion in Cybersecurity | The Network</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Today, security is critical not just for large enterprises, but also small businesses, the public sector, and individuals of every race, gender, age, religion, and culture, in the developing and developed world alike. On this episode of TechBeat, we explore the intersection of cybersecurity and inclusion with Cisco’s Global Lead for Inclusion, Trey Boynton, and Cisco security experts Dug Song, Lothar Renner, Kerry Singleton and Alejandra Hernandez-Montaño.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>culture inclusion</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://newsroom.cisco.com/press-release-content?articleId=2099645</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Cisco Completes Acquisition of BabbleLabs | The Network</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Cisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more onThe Networkand follow us on Twitter at@Cisco.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>https://news-blogs.cisco.com/apjc/2020/02/03/cisco-top-trends-for-2020/?oid=psten020477</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Cisco Top Trends for 2020 - The Cisco News Network - APJC</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>news blog</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Enter a new form of capitalism that is more socially responsible. Some of these responsibilities will no longer be optional. For example, some governments will begin to take action on businesses who fail to act on climate risk. Governments will come under further pressure too. Corporate executives representing millions of workers globally have expressed support for the Paris agreement in order to avert catastrophic temperature rises. They argue that the battle against climate change would protect their nation’s economy and create jobs and businesses. If ignored, estimates suggest that the economic impact could be in the hundreds of billions of dollars, if not trillions. There are plenty of issues to deal with including the climate, carbon emission, waste (the circular economy), trust, diversity, equality and the social divide. Those that embrace social responsibility will enhance their brand and attract talent. In 2020 this issue will become more critical. There has never been a time in history that the planet has needed technology like it does today to help save itself and its inhabitants.
 Two revolutionary tools are overhauling healthcare as we know it today: genome sequencing and CRISPR* engineering. Sequencing the first human genome took about 13 years of research and over US $2.7 billion to complete. Today, it’s on its way to becoming a $100, one-hour-long process. The convergence of medical science, biotechnology and digital technologies is showing significant potential to improve well-being and reduce costs. As more patients are connected and more data is collected in real-time, systems will learn and become more intelligent, enabling even deeper insights and predictive analysis within and across communities. The possibilities include eliminating many diseases, hereditary conditions and disabilities but concurrently opens many deeper ethical questions that will need to be addressed.</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>disabilities jobs diversity</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>jobs disabilities diversity</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>https://learningnetwork.cisco.com/s/article/understanding-cisco-eem-by-examples-part-1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.cisco.com/c/en/us/td/docs/voice_ip_comm/cer/14/english/administration/guide/cer0_b_cisco-emergency-responder-administration-guide-1401/cer0_b_cisco-emergency-responder-administration-guide-1401_appendix_010100.html</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Understanding Cisco EEM by examples Part 1</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>EEM gives you high abilities to admin your cisco device by tracking and monitoring events that take place on your Cisco device and then apply action you already decided early , EEM by giving you this ability , it allow you to automate many tasks .</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>https://www.cisco.com/c/en/us/td/docs/voice_ip_comm/cer/14/english/administration/guide/cer0_b_cisco-emergency-responder-administration-guide-1401/cer0_b_cisco-emergency-responder-administration-guide-1401_appendix_010100.html</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Cisco Emergency Responder Administration Guide for Release ...</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Cisco Emergency Responder Administration Guide for Release 14 - Using AFT for Specific Service Providers [Cisco Emergency Responder] - Cisco</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>To make
                                  		  the ELIN records readable by Verizon's New England states (MA, ME, NH, RI, VT),
@@ -5928,35 +5962,35 @@
                                  		  (through the Bulk Update feature).</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/td/docs/wireless/controller/9800/17-5/config-guide/b_wl_17_5_cg/m_preface_cli.html</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Cisco Catalyst 9800 Series Wireless Controller Software ...</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Cisco Catalyst 9800 Series Wireless Controller Software Configuration Guide, Cisco IOS XE Bengaluru 17.5.x - Preface [Cisco Catalyst 9800 Series Wireless Controllers] - Cisco</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>The documentation set for this product strives to use bias-free language. For
                                     purposes of this documentation set, bias-free is defined as language that does not
@@ -5972,39 +6006,39 @@
                                           is used by a referenced third-party product.</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>disability discrimination</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>https://news-blogs.cisco.com/apjc/2020/04/29/its-not-about-disability-its-about-differences-and-different-strengths-we-bring-to-the-world/</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>“It’s not about disability, it’s about differences, and ...</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>“It’s not about disability, it’s about differences, and different strengths we bring to the world.” - The Cisco News Network - APJC</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>news blog</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>A diverse, inclusive and collaborative workplace is something we are proud of at Cisco. Diversity is about embracing differences, and enabling people to bring different strengths to work. There are a number ofinitiatives close to the hearts of employeeson missions to support inclusivity, and one in particular that has been working to generate awareness for the Australian and New Zealand (ANZ) chapter among employees, and support those who need the help, by being there.
 Cisco Disability Awareness Network (CDAN) &amp; Special Needs Children Group
@@ -6018,115 +6052,115 @@
 “It’s not about disability, it’s about differences, and different strengths we bring to the world. I feel that’s something we embrace at Cisco.”</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>abilities employment employer diversity inclusivity inclusive diverse disability autism</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>employer inclusivity autism diverse abilities employment inclusive diversity disability</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>https://news-blogs.cisco.com/emear/2021/03/29/out-of-sight-but-not-out-of-mind-employees-believe-strong-company-cultures-will-underpin-a-successful-hybrid-world-of-work/</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Out of sight but not out of mind ... - news-blogs.cisco.com</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Out of sight but not out of mind: Employees believe strong company culture will underpin hybrid world of work - Cisco News The EMEAR Network</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>news blog</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>UK employees spend on average half of their waking hours working[1], amplifying the importance of not only optimizing office and virtual workspaces, but building strong, inclusive organisational cultures too. While many remote workers feel empowered and trusted by their managers and teams to do the job at hand, there are still a significant minority who are concerned about being left behind. One-in-six do not feel trusted to do their job from home, without extensive oversight, and whilst half of the workforce feel recognised,the other half believe their achievements are being overlooked.
 David Meads, Chief Executive, Cisco UK &amp; Irelandsaid: “People choose an employer for many reasons, but they buy in to a company for its culture and its values. As we continue to work from home and navigate the challenges and opportunities of shifting to remote and hybrid working, we have to be inclusive, taking everyone on the journey with us. We must take extra steps to ensure that everyone feels invested in, and technology will play a vital role in ensuring that dispersed employees and teams feel connected.”
 About CiscoCisco (NASDAQ: CSCO) is the worldwide leader in technology that powers the Internet. Cisco inspires new possibilities by reimagining your applications, securing your data, transforming your infrastructure, and empowering your teams for a global and inclusive future. Discover more on The Network and follow us on Twitter at @Cisco</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>culture employer inclusive</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>culture hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>https://blogs.cisco.com/tag/math</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>math - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>blog</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>What if your biggest challenge in learning math was that you could not understand the words that the teacher used to convey math concepts? That the language in the math book was not your first language? Or that your learning disability involved difficulties with words and reading? Dr. Matthew Peterson, co-founder and COO of MIND […]</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>disability</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>https://blogs.cisco.com/tag/math</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>math - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>blog</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>What if your biggest challenge in learning math was that you could not understand the words that the teacher used to convey math concepts? That the language in the math book was not your first language? Or that your learning disability involved difficulties with words and reading? Dr. Matthew Peterson, co-founder and COO of MIND […]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>https://gblogs.cisco.com/uki/how-ciscos-flexible-working-culture-is-driving-inclusion-and-employee-engagement/</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>How Cisco’s flexible working culture is ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>How Cisco’s flexible working culture is driving inclusion and employee engagement</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>As I approach my 20thanniversary of working at Cisco, I have been reflecting on how the culture here contributes to work being something thatI do(and enjoy!), rather than a place thatI goto5 days-a-week.
 Over the past year at Cisco, we’ve been working hard to ensure that our people-centric culture is ensuring that we are as inclusive as possible, and attractive to a diverse range of talent.  We set ourselves the audacious goal of reaching the National Equality Standard (NES). This involved a deep inspection of our policies and practices, independently conducted by Ernst and Young (E&amp;Y).  The E&amp;Y team identified a majority of strengths, as well as a few areas for improvement. From this feedback, Cisco UK&amp;I created a cross-functional Inclusive Leadership Team and built a plan.
@@ -6136,77 +6170,76 @@
 There’s never been a better time to set the standard for inclusion and collaboration. At Cisco UK&amp;I, this goes way beyond an HR program: it’sembeddedinto our culture. It’s this culture that gives Cisco the edge – an edge that drives our innovation and helps propel us towards being the greatest IT company in the world.</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>inclusive inclusion culture diverse jobs disability</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>inclusion diverse culture inclusive jobs disability</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>culture disability hiring</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>https://blogs.cisco.com/news</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Executive Platform - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>news blog</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>History will show that 2020 was the year when digitisation truly became a reality. Wendy Mars, President Cisco EMEAR, highlights the three areas of action needed to build an inclusive recovery: connectivity, sustainability and skills.
-What will drive us all successfully into the future? Cisco EVP Fran Katsoudas shares how innovation and empathy will help ensure our recovery is an inclusive one.</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>inclusive</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>culture</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>https://blogs.cisco.com/news</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Executive Platform - Cisco Blogs</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>news blog</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>History will show that 2020 was the year when digitisation truly became a reality. Wendy Mars, President Cisco EMEAR, highlights the three areas of action needed to build an inclusive recovery: connectivity, sustainability and skills.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>https://gblogs.cisco.com/be/hackforgoodhackathon/</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Cisco’s first HackforGood hackathon has ... - Cisco Blogs</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cisco’s first HackforGood hackathon has been an overwhelming success</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Following the different pitches and subsequent Q&amp;A session, the jury chose project PIMS of CRETH and Cisco partners Proximus and Telindus Luxembourg as the most impactful and scalable project. CRETH is a Resource and Technology Assessment Center for Persons with Disabilities. The team’s dream was to create a uniform communication and control platform, allowing disabled persons to be more independent in their daily life.
 Together with Proximus, CRETH came to the conclusion that existing features in a digital TV (like being  able to pause your programme) are not accessible to disabled people who are using another interface to control their TV, and that any change to the settings are causing service disruption. But this also goes for other applications, be it Netflix, communication services like video, messaging or social media, smart lighting or other home automation apps. For disabled persons, the access to digital services shouldn’t be disrupted by technology and settings changes.
@@ -6215,35 +6248,35 @@
 An innovation hackathon contributes at the same time to personal development, and to the success of an employer and its CSR program. After all, our partners contributed to a social transition, with concrete solutions to social challenges. We are very much looking forward to the realisation of the prototyped solutions ! Our partners have all agreed to the further development of it, so that the innovation plans do not remain a dead letter.</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>employer disabilities people disabled person accessibility accessible</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>employer people accessible person disabilities accessibility disabled</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>disability hiring</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>https://www.cisco.com/c/en/us/about/inclusion-diversity.html</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Diversity, Inclusion, and Collaboration at Cisco - Cisco</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>We see inclusion and diversity as essential to fueling the power of connection.
 Our bold new strategies are designed to change the equation for diverse talent.
@@ -6253,81 +6286,48 @@
 Read about workplace perspectives on diversity, inclusion, and collaboration.</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>diverse diversity inclusion</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>diverse inclusion diversity</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>https://blogs.cisco.com/tag/accessibility</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>accessibility - Cisco Blogs</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>blog</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Workplaces provide extra challenges for the 3.4 million visually impaired and blind Americans. The Phone Accessibility Project is a collaboration of Cisco and the American Council of the Blind.
 In a guest post from the American Council of the Blind's Anthony Stephens, he explains how updates to Cisco IP phones help remove barriers for employees who are blind and visually impaired.
 Cisco IP Phone 8800 Series has built-in text-to-speech functionality for blind and visually impaired people.</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>impaired blind accessibility visually</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>https://www.cisco.com/c/en/us/about/accessibility/contact-accessibility-team.html</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Contact Cisco Accessibility - Cisco</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>If you have a question or comment regarding the accessibility of Cisco products for persons with disabilities, please fill out the form so that we may process your request.</t>
-        </is>
-      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>disabilities accessibility</t>
+          <t>visually blind accessibility impaired</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6339,7 +6339,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://community.cisco.com/t5/networking-documents/cisco-software-defined-access-case-studies/ta-p/3866042</t>
+          <t>https://www.cisco.com/c/en/us/about/accessibility/contact-accessibility-team.html</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6349,11 +6349,44 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cisco Software Defined Access Case Studies - Cisco Community</t>
+          <t>Contact Cisco Accessibility - Cisco</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>If you have a question or comment regarding the accessibility of Cisco products for persons with disabilities, please fill out the form so that we may process your request.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>accessibility disabilities</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://community.cisco.com/t5/networking-documents/cisco-software-defined-access-case-studies/ta-p/3866042</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Cisco Software Defined Access Case Studies - Cisco Community</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>The fabric intermediate nodes are part of the Layer 3 network used for interconnections among the edge nodes to the border nodes. In case of a three-tier campus design using a core, distribution, and access, the intermediate nodes are the equivalent of distribution switches, though the number of intermediate nodes is not limited to a single layer of devices. Intermediate nodes route and transport IP traffic inside the fabric. No VXLAN encapsulation/de-encapsulation or LISP control plane messages are required from an intermediate node, which has only the additional fabric MTU requirement to accommodate the larger-size IP packets encapsulated with VXLAN information.
 An SD-Access fabric may be composed of multiple sites. Each site may require different aspects of scale, resiliency, and survivability. The overall aggregation of sites (i.e. the fabric) must also be able to accommodate a very large number of endpoints, scale horizontally by aggregating sites, and having the local state be contained within each site.
@@ -6361,127 +6394,236 @@
 Virtualize as needed for network requirements—Segmentation using SGTs allows for simple-to-manage group-based policies and enables granular data plane isolation between groups of endpoints within a virtualized network, accommodating many network policy requirements. Using SGTs also enables scalable deployment of policy, without having to do cumbersome updates for policies based on IP addresses, which can be prone to breakage. VNs support the transport of SGTs for group segmentation. Use virtual networks when requirements dictate isolation at both the data plane and control plane. For those cases, if communication is required between different virtual networks, you use an external firewall or other device to enable inter-VN communication. You can choose either or both options to match your requirements.</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>accommodating inclusive accommodate</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>accommodate inclusive accommodating</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>culture disability</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>https://jobs.cisco.com/</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Cisco Jobs</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>jobs</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Visit your profile to update your resume, apply to saved jobs, or view status on your job activity.</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>jobs</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>hiring</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>https://jobs.cisco.com/</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cisco Jobs</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Visit your profile to update your resume, apply to saved jobs, or view status on your job activity.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>hiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>https://newsroom.cisco.com/press-release-content?articleId=1918770</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Cisco &amp; partners announce UK govt. funded project 5G ...</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Cisco &amp; partners announce UK govt. funded project 5G RuralFirst | The Network</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>This is the challenge that 5G RuralFirst aims to help solve. It was announced by the UK Government Department for Digital, Culture, Media and Sport (DCMS) as a co-innovation project between industry, government and academia as part of the recent 5G testbed and trial competition to help position the UK as a global leader in 5G. As such, it will explore the benefits of 5G for rural communities and industries like agriculture, broadcasting, and utilities. It will also look to address the barriers to, and build the business case for, investment in 5G rural deployment.
 Nominet is driven by a commitment to use technology to improve connectivity, security and inclusivity online.  For 20 years, Nominet has run the .UK internet infrastructure, developing an expertise in the Domain Name System (DNS) that now underpins sophisticated network analytics used by governments and enterprises to mitigate cyber threats.  The company provides registry services for top level domains, and is exploring applications for a range of emerging technologies. A profit with a purpose company, Nominet supports initiatives that contribute to a vibrant digital future.</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>inclusivity culture</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>culture inclusivity</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>culture</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>https://newsroom.cisco.com/global</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Cisco</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Cisco Global News | The Network</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>news</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Grants and Investments from the Cisco Foundation Will Fund Climate Projects and Technologies to Power a Sustainable and Inclusive Recovery
 News Summary: Cisco and South Korea are collaborating on digitization projects aimed at fostering digital inclusion and supporting the government’s broader</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>inclusive inclusion</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://sway.office.com/ZIetX05BXMPoBLHk</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Our Disability Inclusion Journey</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technology can empower people to achieve more, help strengthen education
+opportunities, and make the workplace more inviting and inclusive for people with
+disabilities. And with more than one billion people with disabilities in the world, Microsoft
+believes accessibility and inclusion are essential to delivering on our mission to
+empower every person and every organization on the planet to achieve more.
+ We are on a journey and continue to learn and grow as we move forward. We hope by
+sharing what we've learned, other organizations can build out and accelerate their
+disability inclusion programs, hire great talent, and reduce the unemployment rate for
+people with disabilities.  Game on!
+ To enable employment diversity and inclusion, Microsoft Real Estate and Facilities
+(RE&amp;F) partners with vendors and employment agencies, creating job opportunities for
+people with intellectual/developmental disabilities (I/DD) at Microsoft facilities across the
+globe.
+ The mission of Microsoft's Supported Employment program is simple: partner with
+vendors and local employment agencies to make a substantial difference in the lives of
+people with I/DD. People with I/DD face particular challenges in entering the job market.
+However, we believe that when people are hired into jobs that match their interests and
+abilities, and have support, they can become successful, productive workers. Having
+fulfilling employment promotes independence and helps people with disabilities become
+fully integrated members of the community.
+ Microsoft has an enduring commitment to fulfilling public responsibilities and serving
+the needs of people in communities worldwide, including those with disabilities. This
+commitment extends beyond products and services; it includes community and civic
+involvement. The Supported Employment program furthers these goals by creating
+opportunities for workers with I/DD to be employed by Microsoft vendors.
+ The Microsoft Autism Hiring program seeks to attract talented candidates on the autism
+spectrum and support them throughout their interviews and employment. We believe
+that people with autism positively impact our company culture, working environment,
+and how we serve our customers.
+ Our one-week hiring event focuses on workability, team projects, and skills assessment.
+Candidates have an opportunity to showcase their unique talents and meet hiring teams
+while learning about Microsoft as an employer of choice. For those candidates that are
+offered a position and become a Microsoft employee, the program also provides Autism
+in the Workplace training and multiple mentors to support the employee as they build
+their career at Microsoft.
+ To learn more about finding talent and creating meaningful employment
+opportunities for people with autism, check out the For more information visit our
+ The Microsoft Ability Hiring Events are an opportunity for candidates with disabilities to
+attend a one-day interview structured to providing an inclusive experience. Based on
+learnings from our Autism Hiring Program, we took best practices and feedback from
+candidates and hiring teams to design an interview experience that allows candidates to
+showcase their talents. In line with our Autism Hiring Program, we see that people with
+disabilities positively impact our company culture, working environment, and how we
+serve our customers.
+ The one-day hiring event starts off with a brunch where our candidates meet with
+members of the disAbility Employee Resource Group (ERG). The Microsoft ERG
+members can share their experience as an employee and our culture. The interview
+center is set up with our Accessible Events Guide as a baseline of interview
+accommodations. Hiring teams and Interviewers attend a training on disability etiquette,
+accommodations, and expectations to provide a supportive day for all candidates.
+ Our Microsoft careers site is augmented by our . Candidates with disabilities will find details on hot jobs, up-
+coming events, employee stories, and frequently asked questions. Candidates are then
+invited to apply via dedicated email addresses routed to members of our Global Talent
+Acquisition team for consideration:
+ Our Global Talent Acquisition team maintains a Disability Hiring Toolkit for recruiters and
+HR. The toolkit provides resources such as disability education and etiquette
+awareness, interview accommodation guidance, and hiring team preparation for
+candidates with disabilities. As a company we strive to ensure every candidate has a
+world class recruiting experience. This toolkit is leveraged to help us deliver on that
+experience for candidates with disabilities. Did you Know:   People with disabilities make up about 6 percent of the U.S. labor
+force, according to the . And yet, those with disabilities are
+twice as likely to be unemployed. 
+ Our Global Talent Acquisition organization has a dedicated team to recruit talented and
+qualified candidates with disabilities. This includes a Talent Sourcer responsible for
+outreach, sourcing and screening of people with disabilities. There is also a Diversity
+Program Manager who ensures an inclusive hiring process, conducts interviewer
+training, accommodation consultations, and secures open positions/interviewers for
+hiring events.
+ Candidates with disabilities can reach this team by emailing .
+ On a new hire’s first day, our New Employee Orientation program ensures that people
+with visual impairments receive accessible materials ahead of time to review.  In
+addition, all videos are captioned, activities are inclusive for everyone, and speakers will
+describe all slide visuals and content.
+ There are Benefits Business Partners within the Microsoft Benefits team who provide
+personal support, advice, and education to employees and managers. Topics such as
+leave of absence arrangements, workplace accommodations, ergonomic evaluations,
+worker's compensation, and assistance with specific and detailed benefits questions.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>hired accommodations autism inclusive jobs accessibility accommodation recruit employee abilities job diversity opportunities disability hire recruiting inclusion employment group interview employer accessible culture hiring disabilities resource erg</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>culture disability hiring</t>
         </is>
       </c>
     </row>
